--- a/Azure Role Impact.xlsx
+++ b/Azure Role Impact.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft.sharepoint.com/teams/SEE-17838/Shared Documents/Delivery/Azure Tenant Strategy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\Github\PIMRoleImpacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{DD989B39-3953-4B47-A0C1-43EA4301A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6528E58-06EE-4588-88CB-1394450E722D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8AB2D-3DEF-41A5-AFBC-8ADDC89FD632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="-285" windowWidth="27525" windowHeight="14295" xr2:uid="{392157AB-E039-454D-880A-B886FA6D2628}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{392157AB-E039-454D-880A-B886FA6D2628}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure AD Roles" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="566">
   <si>
     <t>Impact</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Guest inviter</t>
-  </si>
-  <si>
-    <t> 8</t>
   </si>
   <si>
     <t>Global Reader</t>
@@ -3859,7 +3856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4147,7 +4144,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4158,7 +4155,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H44"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4906,7 +4903,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
         <v>8</v>
@@ -4960,8 +4957,8 @@
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
+      <c r="C31" s="2">
+        <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>10</v>
@@ -4984,7 +4981,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>8</v>
@@ -5010,7 +5007,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>8</v>
@@ -5036,7 +5033,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>8</v>
@@ -5062,7 +5059,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>8</v>
@@ -5088,7 +5085,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>8</v>
@@ -5114,7 +5111,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -5140,7 +5137,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>8</v>
@@ -5166,7 +5163,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2">
         <v>8</v>
@@ -5192,7 +5189,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2">
         <v>8</v>
@@ -5218,7 +5215,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
@@ -5244,7 +5241,7 @@
         <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -5270,7 +5267,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2">
         <v>8</v>
@@ -5296,7 +5293,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="16">
         <v>8</v>
@@ -5319,10 +5316,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="38" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>59</v>
       </c>
       <c r="C45" s="39">
         <v>8</v>
@@ -5345,10 +5342,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
@@ -5371,10 +5368,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="24">
         <v>4</v>
@@ -5397,10 +5394,10 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="16">
         <v>8</v>
@@ -5453,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -5467,13 +5464,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5481,13 +5478,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5495,13 +5492,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5509,13 +5506,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5523,27 +5520,27 @@
         <v>26</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5551,13 +5548,13 @@
         <v>26</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5565,13 +5562,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5579,13 +5576,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5593,13 +5590,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -5607,27 +5604,27 @@
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5635,27 +5632,27 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5663,27 +5660,27 @@
         <v>26</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5691,13 +5688,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5705,13 +5702,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5719,13 +5716,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5733,13 +5730,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5747,13 +5744,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5761,13 +5758,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="D23" s="33" t="s">
         <v>112</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5775,13 +5772,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="33" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5789,13 +5786,13 @@
         <v>26</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5803,27 +5800,27 @@
         <v>26</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>118</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5831,13 +5828,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5845,13 +5842,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>124</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5859,55 +5856,55 @@
         <v>26</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>126</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>128</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="33" t="s">
         <v>133</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5915,13 +5912,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5929,13 +5926,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5943,13 +5940,13 @@
         <v>26</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5957,27 +5954,27 @@
         <v>8</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>141</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5985,13 +5982,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -5999,13 +5996,13 @@
         <v>26</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="33" t="s">
         <v>147</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -6013,27 +6010,27 @@
         <v>26</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6041,55 +6038,55 @@
         <v>26</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6097,27 +6094,27 @@
         <v>26</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="33" t="s">
         <v>161</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C48" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6125,27 +6122,27 @@
         <v>26</v>
       </c>
       <c r="B49" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6153,41 +6150,41 @@
         <v>26</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="27" t="s">
         <v>172</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>174</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6195,27 +6192,27 @@
         <v>26</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>178</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6223,13 +6220,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>180</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6237,13 +6234,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>182</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6251,13 +6248,13 @@
         <v>26</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>184</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -6265,13 +6262,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="27" t="s">
         <v>186</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6279,13 +6276,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="27" t="s">
         <v>188</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6293,27 +6290,27 @@
         <v>26</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="27" t="s">
         <v>190</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6321,41 +6318,41 @@
         <v>26</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>194</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C65" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6363,27 +6360,27 @@
         <v>8</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C66" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="27" t="s">
         <v>200</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C67" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="27" t="s">
         <v>202</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6391,13 +6388,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6405,13 +6402,13 @@
         <v>26</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="27" t="s">
         <v>205</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6419,13 +6416,13 @@
         <v>26</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C70" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="27" t="s">
         <v>207</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6433,97 +6430,97 @@
         <v>26</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C71" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="D72" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C73" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" s="33" t="s">
         <v>214</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="33" t="s">
         <v>216</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C75" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D76" s="33" t="s">
         <v>220</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="33" t="s">
         <v>222</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6531,27 +6528,27 @@
         <v>8</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="33" t="s">
         <v>224</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C79" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="33" t="s">
         <v>226</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6559,13 +6556,13 @@
         <v>26</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C80" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6573,13 +6570,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6587,69 +6584,69 @@
         <v>8</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="33" t="s">
         <v>232</v>
-      </c>
-      <c r="D82" s="33" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="33" t="s">
         <v>234</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="33" t="s">
         <v>236</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="D85" s="27" t="s">
         <v>239</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C86" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="28" t="s">
         <v>241</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6657,13 +6654,13 @@
         <v>26</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C87" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6671,13 +6668,13 @@
         <v>26</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C88" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" s="27" t="s">
         <v>245</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6685,13 +6682,13 @@
         <v>26</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C89" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>247</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6699,13 +6696,13 @@
         <v>26</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C90" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="27" t="s">
         <v>249</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6713,13 +6710,13 @@
         <v>26</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C91" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>251</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6727,13 +6724,13 @@
         <v>26</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6741,27 +6738,27 @@
         <v>26</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C93" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="27" t="s">
         <v>255</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="27" t="s">
         <v>257</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6769,13 +6766,13 @@
         <v>26</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C95" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="27" t="s">
         <v>259</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6783,41 +6780,41 @@
         <v>8</v>
       </c>
       <c r="B96" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="D96" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C97" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D97" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C98" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" s="33" t="s">
         <v>266</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6825,27 +6822,27 @@
         <v>26</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C99" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>268</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="33" t="s">
         <v>270</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6853,13 +6850,13 @@
         <v>26</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C101" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6867,13 +6864,13 @@
         <v>26</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C102" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D102" s="33" t="s">
         <v>274</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
@@ -6881,27 +6878,27 @@
         <v>26</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C103" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D103" s="33" t="s">
         <v>276</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C104" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" s="33" t="s">
         <v>278</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6909,55 +6906,55 @@
         <v>26</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C105" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D105" s="33" t="s">
         <v>280</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C106" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D106" s="33" t="s">
         <v>282</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C107" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D107" s="33" t="s">
         <v>284</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="D108" s="27" t="s">
         <v>287</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6965,13 +6962,13 @@
         <v>26</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C109" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="D109" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -6979,97 +6976,97 @@
         <v>26</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C110" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D110" s="27" t="s">
         <v>291</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C111" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D111" s="27" t="s">
         <v>293</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C112" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D112" s="27" t="s">
         <v>295</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C113" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="D113" s="27" t="s">
         <v>297</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C114" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C115" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D115" s="27" t="s">
         <v>301</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C116" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7077,55 +7074,55 @@
         <v>8</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C117" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C118" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D118" s="27" t="s">
         <v>307</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C119" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>309</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C120" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D120" s="27" t="s">
         <v>311</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7133,13 +7130,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="C121" s="32" t="s">
+      <c r="D121" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7147,27 +7144,27 @@
         <v>8</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C122" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" s="33" t="s">
         <v>316</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C123" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7175,41 +7172,41 @@
         <v>8</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C124" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D124" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C125" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D125" s="33" t="s">
         <v>322</v>
-      </c>
-      <c r="D125" s="33" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C126" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" s="33" t="s">
         <v>324</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7217,27 +7214,27 @@
         <v>26</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C127" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D127" s="33" t="s">
         <v>326</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C128" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D128" s="33" t="s">
         <v>328</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7245,13 +7242,13 @@
         <v>26</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C129" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D129" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="D129" s="33" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7259,13 +7256,13 @@
         <v>26</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C130" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D130" s="33" t="s">
         <v>332</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7273,27 +7270,27 @@
         <v>8</v>
       </c>
       <c r="B131" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C131" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="D131" s="27" t="s">
         <v>335</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C132" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" s="27" t="s">
         <v>337</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7301,13 +7298,13 @@
         <v>26</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C133" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D133" s="27" t="s">
         <v>339</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7315,27 +7312,27 @@
         <v>8</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C134" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="D134" s="27" t="s">
         <v>341</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C135" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D135" s="27" t="s">
         <v>343</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7343,13 +7340,13 @@
         <v>26</v>
       </c>
       <c r="B136" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C136" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="D136" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="D136" s="33" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7357,27 +7354,27 @@
         <v>26</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C137" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D137" s="33" t="s">
         <v>348</v>
-      </c>
-      <c r="D137" s="33" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C138" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D138" s="33" t="s">
         <v>350</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7385,41 +7382,41 @@
         <v>8</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C139" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D139" s="33" t="s">
         <v>352</v>
-      </c>
-      <c r="D139" s="33" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C140" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D140" s="33" t="s">
         <v>354</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C141" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D141" s="33" t="s">
         <v>356</v>
-      </c>
-      <c r="D141" s="33" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7427,27 +7424,27 @@
         <v>8</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C142" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D142" s="33" t="s">
         <v>358</v>
-      </c>
-      <c r="D142" s="33" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C143" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D143" s="33" t="s">
         <v>360</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7455,41 +7452,41 @@
         <v>8</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C144" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D144" s="33" t="s">
         <v>362</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C145" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D145" s="33" t="s">
         <v>364</v>
-      </c>
-      <c r="D145" s="33" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C146" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="D146" s="33" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7497,13 +7494,13 @@
         <v>8</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C147" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D147" s="33" t="s">
         <v>368</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7511,27 +7508,27 @@
         <v>26</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C148" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="D148" s="33" t="s">
         <v>370</v>
-      </c>
-      <c r="D148" s="33" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C149" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="D149" s="33" t="s">
         <v>372</v>
-      </c>
-      <c r="D149" s="33" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7539,27 +7536,27 @@
         <v>26</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C150" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D150" s="33" t="s">
         <v>374</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C151" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="33" t="s">
         <v>376</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7567,55 +7564,55 @@
         <v>26</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C152" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D152" s="33" t="s">
         <v>378</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C153" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D153" s="33" t="s">
         <v>380</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C154" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D154" s="33" t="s">
         <v>382</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C155" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D155" s="33" t="s">
         <v>384</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7623,27 +7620,27 @@
         <v>26</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C156" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="D156" s="33" t="s">
         <v>386</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C157" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="D157" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7651,13 +7648,13 @@
         <v>26</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C158" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="D158" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="D158" s="33" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7665,13 +7662,13 @@
         <v>26</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C159" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D159" s="33" t="s">
         <v>392</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7679,13 +7676,13 @@
         <v>26</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C160" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="D160" s="33" t="s">
         <v>394</v>
-      </c>
-      <c r="D160" s="33" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7693,27 +7690,27 @@
         <v>26</v>
       </c>
       <c r="B161" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C161" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="D161" s="27" t="s">
         <v>397</v>
-      </c>
-      <c r="D161" s="27" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C162" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D162" s="27" t="s">
         <v>399</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7721,13 +7718,13 @@
         <v>26</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C163" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="D163" s="27" t="s">
         <v>401</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7735,13 +7732,13 @@
         <v>26</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C164" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D164" s="27" t="s">
         <v>403</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7749,27 +7746,27 @@
         <v>26</v>
       </c>
       <c r="B165" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="C165" s="32" t="s">
         <v>405</v>
       </c>
-      <c r="C165" s="32" t="s">
+      <c r="D165" s="33" t="s">
         <v>406</v>
-      </c>
-      <c r="D165" s="33" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C166" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D166" s="33" t="s">
         <v>408</v>
-      </c>
-      <c r="D166" s="33" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -7777,27 +7774,27 @@
         <v>8</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C167" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="D167" s="33" t="s">
         <v>410</v>
-      </c>
-      <c r="D167" s="33" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A168" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C168" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D168" s="33" t="s">
         <v>412</v>
-      </c>
-      <c r="D168" s="33" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7805,97 +7802,97 @@
         <v>26</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C169" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="D169" s="33" t="s">
         <v>414</v>
-      </c>
-      <c r="D169" s="33" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C170" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="D170" s="33" t="s">
         <v>416</v>
-      </c>
-      <c r="D170" s="33" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C171" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="D171" s="33" t="s">
         <v>418</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C172" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D172" s="33" t="s">
         <v>420</v>
-      </c>
-      <c r="D172" s="33" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A173" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C173" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D173" s="33" t="s">
         <v>422</v>
-      </c>
-      <c r="D173" s="33" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A174" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C174" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D174" s="33" t="s">
         <v>424</v>
-      </c>
-      <c r="D174" s="33" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C175" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D175" s="33" t="s">
         <v>426</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7903,13 +7900,13 @@
         <v>26</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C176" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D176" s="33" t="s">
         <v>428</v>
-      </c>
-      <c r="D176" s="33" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7917,13 +7914,13 @@
         <v>26</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7931,41 +7928,41 @@
         <v>26</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -7973,13 +7970,13 @@
         <v>8</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C181" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="D181" s="33" t="s">
         <v>434</v>
-      </c>
-      <c r="D181" s="33" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -7987,69 +7984,69 @@
         <v>26</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C182" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="D182" s="33" t="s">
         <v>436</v>
-      </c>
-      <c r="D182" s="33" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C183" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="D183" s="33" t="s">
         <v>438</v>
-      </c>
-      <c r="D183" s="33" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C184" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="D184" s="33" t="s">
         <v>440</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B185" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C185" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="C185" s="28" t="s">
+      <c r="D185" s="27" t="s">
         <v>443</v>
-      </c>
-      <c r="D185" s="27" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C186" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D186" s="27" t="s">
         <v>445</v>
-      </c>
-      <c r="D186" s="27" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8057,27 +8054,27 @@
         <v>26</v>
       </c>
       <c r="B187" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="C187" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="C187" s="32" t="s">
+      <c r="D187" s="33" t="s">
         <v>448</v>
-      </c>
-      <c r="D187" s="33" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A188" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C188" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="D188" s="33" t="s">
         <v>450</v>
-      </c>
-      <c r="D188" s="33" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -8085,41 +8082,41 @@
         <v>26</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C189" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="D189" s="32" t="s">
         <v>452</v>
-      </c>
-      <c r="D189" s="32" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C190" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="D190" s="33" t="s">
         <v>454</v>
-      </c>
-      <c r="D190" s="33" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C191" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="D191" s="32" t="s">
         <v>456</v>
-      </c>
-      <c r="D191" s="32" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8127,27 +8124,27 @@
         <v>26</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C192" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D192" s="33" t="s">
         <v>458</v>
-      </c>
-      <c r="D192" s="33" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C193" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="D193" s="33" t="s">
         <v>460</v>
-      </c>
-      <c r="D193" s="33" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8155,13 +8152,13 @@
         <v>26</v>
       </c>
       <c r="B194" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C194" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="C194" s="28" t="s">
+      <c r="D194" s="27" t="s">
         <v>463</v>
-      </c>
-      <c r="D194" s="27" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8169,13 +8166,13 @@
         <v>26</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C195" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D195" s="27" t="s">
         <v>465</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8183,13 +8180,13 @@
         <v>26</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C196" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D196" s="27" t="s">
         <v>467</v>
-      </c>
-      <c r="D196" s="27" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8197,27 +8194,27 @@
         <v>26</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C197" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D197" s="27" t="s">
         <v>469</v>
-      </c>
-      <c r="D197" s="27" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C198" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="D198" s="27" t="s">
         <v>471</v>
-      </c>
-      <c r="D198" s="27" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8225,13 +8222,13 @@
         <v>8</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8239,55 +8236,55 @@
         <v>8</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C201" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D201" s="27" t="s">
         <v>475</v>
-      </c>
-      <c r="D201" s="27" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C202" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="D202" s="27" t="s">
         <v>477</v>
-      </c>
-      <c r="D202" s="27" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C203" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D203" s="27" t="s">
         <v>479</v>
-      </c>
-      <c r="D203" s="27" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8295,27 +8292,27 @@
         <v>8</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C204" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D204" s="27" t="s">
         <v>481</v>
-      </c>
-      <c r="D204" s="27" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C205" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D205" s="27" t="s">
         <v>483</v>
-      </c>
-      <c r="D205" s="27" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8323,13 +8320,13 @@
         <v>26</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C206" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D206" s="27" t="s">
         <v>485</v>
-      </c>
-      <c r="D206" s="27" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="33" x14ac:dyDescent="0.25">
@@ -8337,13 +8334,13 @@
         <v>26</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C207" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="D207" s="27" t="s">
         <v>487</v>
-      </c>
-      <c r="D207" s="27" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8351,27 +8348,27 @@
         <v>26</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C208" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="D208" s="27" t="s">
         <v>489</v>
-      </c>
-      <c r="D208" s="27" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C209" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D209" s="27" t="s">
         <v>491</v>
-      </c>
-      <c r="D209" s="27" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8379,27 +8376,27 @@
         <v>8</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C210" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="D210" s="27" t="s">
         <v>493</v>
-      </c>
-      <c r="D210" s="27" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C211" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="D211" s="27" t="s">
         <v>495</v>
-      </c>
-      <c r="D211" s="27" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8407,13 +8404,13 @@
         <v>26</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C212" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D212" s="27" t="s">
         <v>497</v>
-      </c>
-      <c r="D212" s="27" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8421,13 +8418,13 @@
         <v>26</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C213" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="D213" s="27" t="s">
         <v>499</v>
-      </c>
-      <c r="D213" s="27" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8435,41 +8432,41 @@
         <v>26</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C214" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="D214" s="27" t="s">
         <v>501</v>
-      </c>
-      <c r="D214" s="27" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C215" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D215" s="27" t="s">
         <v>503</v>
-      </c>
-      <c r="D215" s="27" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C216" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="D216" s="27" t="s">
         <v>505</v>
-      </c>
-      <c r="D216" s="27" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8477,27 +8474,27 @@
         <v>26</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C217" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="D217" s="27" t="s">
         <v>507</v>
-      </c>
-      <c r="D217" s="27" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C218" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="D218" s="27" t="s">
         <v>509</v>
-      </c>
-      <c r="D218" s="27" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8505,27 +8502,27 @@
         <v>26</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C219" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D219" s="27" t="s">
         <v>511</v>
-      </c>
-      <c r="D219" s="27" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C220" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D220" s="27" t="s">
         <v>513</v>
-      </c>
-      <c r="D220" s="27" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8533,27 +8530,27 @@
         <v>26</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C221" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="D221" s="27" t="s">
         <v>515</v>
-      </c>
-      <c r="D221" s="27" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C222" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="D222" s="27" t="s">
         <v>517</v>
-      </c>
-      <c r="D222" s="27" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8561,13 +8558,13 @@
         <v>26</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C223" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="D223" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8575,13 +8572,13 @@
         <v>26</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C224" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D224" s="27" t="s">
         <v>521</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8589,27 +8586,27 @@
         <v>26</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C225" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D225" s="27" t="s">
         <v>523</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C226" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D226" s="27" t="s">
         <v>525</v>
-      </c>
-      <c r="D226" s="27" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8617,13 +8614,13 @@
         <v>26</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C227" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D227" s="27" t="s">
         <v>527</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8631,13 +8628,13 @@
         <v>26</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C228" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="D228" s="27" t="s">
         <v>529</v>
-      </c>
-      <c r="D228" s="27" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8645,27 +8642,27 @@
         <v>26</v>
       </c>
       <c r="B229" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="C229" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="C229" s="32" t="s">
+      <c r="D229" s="33" t="s">
         <v>532</v>
-      </c>
-      <c r="D229" s="33" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C230" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="D230" s="33" t="s">
         <v>534</v>
-      </c>
-      <c r="D230" s="33" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8673,13 +8670,13 @@
         <v>26</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C231" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="D231" s="33" t="s">
         <v>536</v>
-      </c>
-      <c r="D231" s="33" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8687,41 +8684,41 @@
         <v>26</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C232" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="D232" s="33" t="s">
         <v>538</v>
-      </c>
-      <c r="D232" s="33" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C233" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="D233" s="33" t="s">
         <v>540</v>
-      </c>
-      <c r="D233" s="33" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C234" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="D234" s="33" t="s">
         <v>542</v>
-      </c>
-      <c r="D234" s="33" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8729,41 +8726,41 @@
         <v>26</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C235" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D235" s="33" t="s">
         <v>544</v>
-      </c>
-      <c r="D235" s="33" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C236" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="D236" s="33" t="s">
         <v>546</v>
-      </c>
-      <c r="D236" s="33" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C237" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D237" s="33" t="s">
         <v>548</v>
-      </c>
-      <c r="D237" s="33" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8771,27 +8768,27 @@
         <v>26</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C238" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="D238" s="33" t="s">
         <v>550</v>
-      </c>
-      <c r="D238" s="33" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C239" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="D239" s="33" t="s">
         <v>552</v>
-      </c>
-      <c r="D239" s="33" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8799,27 +8796,27 @@
         <v>8</v>
       </c>
       <c r="B240" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="C240" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="C240" s="28" t="s">
+      <c r="D240" s="27" t="s">
         <v>555</v>
-      </c>
-      <c r="D240" s="27" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C241" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="D241" s="27" t="s">
         <v>557</v>
-      </c>
-      <c r="D241" s="27" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8827,13 +8824,13 @@
         <v>26</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C242" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D242" s="27" t="s">
         <v>559</v>
-      </c>
-      <c r="D242" s="27" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8841,13 +8838,13 @@
         <v>26</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C243" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="D243" s="27" t="s">
         <v>561</v>
-      </c>
-      <c r="D243" s="27" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -8855,13 +8852,13 @@
         <v>26</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C244" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="D244" s="27" t="s">
         <v>563</v>
-      </c>
-      <c r="D244" s="27" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -9142,15 +9139,15 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -9158,7 +9155,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>26</v>
@@ -9166,7 +9163,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -9174,7 +9171,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -9182,7 +9179,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -9190,7 +9187,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -9198,7 +9195,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -9206,7 +9203,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -9214,7 +9211,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -9222,7 +9219,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -9230,7 +9227,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -9238,7 +9235,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -9246,7 +9243,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -9254,7 +9251,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -9262,7 +9259,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -9270,7 +9267,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -9278,7 +9275,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -9286,7 +9283,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -9294,7 +9291,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -9302,7 +9299,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C23">
         <v>243</v>
@@ -9314,82 +9311,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e">T3N2AKX7Y3DP-701378903-243</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e">
-      <Url>https://microsoft.sharepoint.com/teams/SEE-17838/_layouts/15/DocIdRedir.aspx?ID=T3N2AKX7Y3DP-701378903-243</Url>
-      <Description>T3N2AKX7Y3DP-701378903-243</Description>
-    </_dlc_DocIdUrl>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad872289-d705-4e7c-a122-ea3177bf1a53">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100019419FCF45B814EA0EA18145E6D787C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c86b96a73799d35e4eb11afcfb13842c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="230e9df3-be65-4c73-a93b-d1236ebd677e" xmlns:ns3="ad872289-d705-4e7c-a122-ea3177bf1a53" xmlns:ns4="8a3c5e22-8492-4b21-8928-44ed79656c10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="068bdb4fb675dbfff76cecd2eca3b6d3" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9661,42 +9582,83 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A24D1C-3E5C-490F-8ABE-52612D4722E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8a3c5e22-8492-4b21-8928-44ed79656c10"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ad872289-d705-4e7c-a122-ea3177bf1a53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2998ACC3-BDE6-4F1B-A5F9-A562574A546F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8D4A93-3ACD-45F4-9570-35A94FCAD792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e">T3N2AKX7Y3DP-701378903-243</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e">
+      <Url>https://microsoft.sharepoint.com/teams/SEE-17838/_layouts/15/DocIdRedir.aspx?ID=T3N2AKX7Y3DP-701378903-243</Url>
+      <Description>T3N2AKX7Y3DP-701378903-243</Description>
+    </_dlc_DocIdUrl>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ad872289-d705-4e7c-a122-ea3177bf1a53">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D80F75-03F3-430B-9AD2-9DC033750480}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9717,6 +9679,41 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8D4A93-3ACD-45F4-9570-35A94FCAD792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2998ACC3-BDE6-4F1B-A5F9-A562574A546F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A24D1C-3E5C-490F-8ABE-52612D4722E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8a3c5e22-8492-4b21-8928-44ed79656c10"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ad872289-d705-4e7c-a122-ea3177bf1a53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/Azure Role Impact.xlsx
+++ b/Azure Role Impact.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\Github\PIMRoleImpacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jserban\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8AB2D-3DEF-41A5-AFBC-8ADDC89FD632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F034AF0-B4D1-47E5-AB21-31158DAD7A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{392157AB-E039-454D-880A-B886FA6D2628}"/>
   </bookViews>
@@ -18,8 +18,8 @@
     <sheet name="Azure Resource Role Categories" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Azure AD Roles'!$A$1:$H$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Azure Resource Roles'!$A$1:$D$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Azure AD Roles'!$A$1:$H$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Azure Resource Roles'!$A$1:$D$244</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="568">
   <si>
     <t>Impact</t>
   </si>
@@ -1742,6 +1742,12 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Partner Tier1 Support</t>
+  </si>
+  <si>
+    <t>Partner Tier2 Support</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1799,18 +1805,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1821,8 +1815,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2049,12 +2049,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2113,38 +2165,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2171,6 +2200,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3856,7 +3960,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4144,7 +4248,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4152,16 +4256,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345CF775-30EE-4269-87A9-6AFFB7252A14}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
@@ -4171,40 +4275,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="62" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
@@ -4224,10 +4328,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
@@ -4250,10 +4354,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -4275,11 +4379,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -4290,7 +4394,7 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -4302,13 +4406,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -4328,10 +4432,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -4353,13 +4457,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -4368,7 +4472,7 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -4379,11 +4483,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -4394,7 +4498,7 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -4406,10 +4510,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -4432,12 +4536,12 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C11" s="20">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -4446,7 +4550,7 @@
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -4458,10 +4562,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -4472,7 +4576,7 @@
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -4484,10 +4588,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -4509,13 +4613,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4535,13 +4639,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -4562,10 +4666,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -4586,67 +4690,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
+      <c r="A19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
@@ -4654,7 +4758,7 @@
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -4666,13 +4770,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>26</v>
+        <v>566</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
@@ -4692,13 +4796,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>26</v>
+        <v>567</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
@@ -4718,13 +4822,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
@@ -4744,13 +4848,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
@@ -4758,7 +4862,7 @@
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -4769,14 +4873,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>26</v>
+      <c r="A24" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
@@ -4784,7 +4888,7 @@
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -4796,13 +4900,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="C25" s="20">
+        <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>10</v>
@@ -4810,7 +4914,7 @@
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -4822,13 +4926,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="C26" s="20">
+        <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
@@ -4848,13 +4952,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>10</v>
@@ -4874,13 +4978,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -4898,64 +5002,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="16">
+        <v>4</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8">
         <v>8</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <v>8</v>
@@ -4967,7 +5071,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>11</v>
@@ -4978,10 +5082,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <v>8</v>
@@ -4992,7 +5096,7 @@
       <c r="E32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -5004,10 +5108,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="2">
         <v>8</v>
@@ -5018,7 +5122,7 @@
       <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -5029,11 +5133,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>26</v>
+      <c r="A34" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
         <v>8</v>
@@ -5045,7 +5149,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>11</v>
@@ -5056,10 +5160,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2">
         <v>8</v>
@@ -5082,10 +5186,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
         <v>8</v>
@@ -5107,11 +5211,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>49</v>
+      <c r="A37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C37" s="2">
         <v>8</v>
@@ -5122,8 +5226,8 @@
       <c r="E37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>11</v>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>11</v>
@@ -5133,11 +5237,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>50</v>
+      <c r="A38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C38" s="2">
         <v>8</v>
@@ -5159,11 +5263,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>26</v>
+      <c r="A39" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2">
         <v>8</v>
@@ -5174,8 +5278,8 @@
       <c r="E39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>11</v>
+      <c r="F39" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>11</v>
@@ -5185,11 +5289,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>52</v>
+      <c r="A40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C40" s="2">
         <v>8</v>
@@ -5211,11 +5315,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>53</v>
+      <c r="A41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
@@ -5226,7 +5330,7 @@
       <c r="E41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -5237,11 +5341,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>54</v>
+      <c r="A42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -5264,10 +5368,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C43" s="2">
         <v>8</v>
@@ -5288,67 +5392,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="16">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="2">
         <v>8</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="39">
+      <c r="A45" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2">
         <v>8</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="2">
+        <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
@@ -5357,7 +5461,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
@@ -5366,63 +5470,115 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="16">
+        <v>8</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C48" s="30">
+        <v>8</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="24">
-        <v>4</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="20">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="16">
+      <c r="C50" s="16">
         <v>8</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F50" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G50" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H50" s="18" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H44" xr:uid="{345CF775-30EE-4269-87A9-6AFFB7252A14}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H44">
-      <sortCondition ref="A2:A44"/>
-      <sortCondition ref="B2:B44"/>
+  <autoFilter ref="A1:H47" xr:uid="{345CF775-30EE-4269-87A9-6AFFB7252A14}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+      <sortCondition ref="B2:B47"/>
+      <sortCondition ref="A2:A47"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5435,3689 +5591,3693 @@
   <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E272" sqref="E272"/>
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="153.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="D17" s="41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C18" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="D27" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="25" t="s">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D35" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="B109" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="31" t="s">
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A129" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D137" s="48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D139" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D141" s="41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D145" s="41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D146" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149" s="41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D151" s="41" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D152" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D157" s="41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D158" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D159" s="41" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D161" s="41" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D162" s="41" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D163" s="41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D165" s="41" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="D166" s="41" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D167" s="41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D168" s="41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D169" s="41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B170" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D170" s="41" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B171" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C171" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="D171" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="B172" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="C172" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D172" s="41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D173" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D175" s="41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B176" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D176" s="41" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D177" s="41" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A178" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D178" s="41" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D179" s="41" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A180" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D180" s="41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="B181" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D181" s="41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="B182" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D182" s="41" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D183" s="41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="B184" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="D184" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A185" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D185" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="B186" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D186" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D187" s="41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D188" s="41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D189" s="41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D190" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="B191" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D191" s="41" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="B192" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D192" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B193" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D193" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B194" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D194" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B195" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D195" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D196" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B197" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C197" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="D197" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B198" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="31" t="s">
+      <c r="C198" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="D198" s="45" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C199" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D199" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B200" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C200" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D200" s="54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B201" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C201" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D201" s="54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B202" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C202" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D202" s="54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B203" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C203" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D203" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="B204" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C204" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="D204" s="54" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="B205" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C205" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D205" s="54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="B206" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C206" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D206" s="54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B207" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C207" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D207" s="54" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B208" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C208" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D208" s="54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="B209" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C209" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D209" s="54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B210" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C210" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D210" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B211" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C211" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D211" s="54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="B212" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C212" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D212" s="54" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B213" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C213" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D213" s="54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B214" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C214" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D214" s="54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B215" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C215" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D215" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B216" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C216" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D216" s="54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B217" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C217" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D217" s="54" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A218" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B218" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C218" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D218" s="54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="B219" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C219" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D219" s="54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A220" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="B220" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C220" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D220" s="54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B221" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C221" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D221" s="54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B222" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C222" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="31" t="s">
+      <c r="D222" s="54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B223" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C223" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D223" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="B224" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C224" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D224" s="54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="B225" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C225" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D225" s="54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B226" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C226" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D226" s="54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="B227" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C227" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D227" s="54" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A228" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="B228" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C228" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D228" s="54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A229" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="B229" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C229" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D229" s="54" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A230" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="B230" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C230" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D230" s="54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="B231" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C231" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D231" s="54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="B232" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C232" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D232" s="54" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="B233" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C233" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D233" s="54" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="B234" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C234" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D234" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="B235" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C235" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="D235" s="54" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="B236" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C236" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D236" s="54" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B237" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C237" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="D237" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="B238" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C238" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D238" s="54" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="B239" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C239" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D239" s="54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B240" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C240" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D240" s="54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B241" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C241" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D241" s="54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B242" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C242" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="31" t="s">
+      <c r="D242" s="55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B243" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C243" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="D243" s="55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B244" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" s="33" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="31" t="s">
+      <c r="C244" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="C96" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C99" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="D99" s="33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="D107" s="33" t="s">
+      <c r="D244" s="58" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A112" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C117" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B120" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="D125" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D127" s="33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B129" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="D129" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B130" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B133" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D136" s="33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D137" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C138" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C139" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="D139" s="33" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B140" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C140" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C141" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="D141" s="33" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="D142" s="33" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="D144" s="33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B145" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="D145" s="33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="D146" s="33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="D148" s="33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="D149" s="33" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B153" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="D153" s="33" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B155" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C155" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B156" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C156" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B158" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="D158" s="33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C159" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B160" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="D160" s="33" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B161" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="D161" s="27" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C163" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B164" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B165" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C165" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="D165" s="33" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C166" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="D166" s="33" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A167" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C167" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="D167" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A168" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B168" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C168" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="D168" s="33" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B169" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C169" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D169" s="33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A170" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B170" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C170" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="D170" s="33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B171" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B172" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C172" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D172" s="33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B173" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C173" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D173" s="33" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A174" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B174" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C174" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="D174" s="33" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B175" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C175" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B176" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C176" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="D176" s="33" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B177" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C177" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B178" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C178" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="D178" s="33" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B179" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C179" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B180" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="D180" s="33" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A181" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C181" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="D181" s="33" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B182" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="D182" s="33" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B183" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C183" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="D183" s="33" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B184" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B185" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="C185" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="D185" s="27" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B186" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="C186" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="D186" s="27" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B187" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="D187" s="33" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="D188" s="33" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B189" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C189" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="D189" s="32" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B190" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C190" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="D190" s="33" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B191" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C191" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="D191" s="32" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B192" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="D192" s="33" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B193" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="C193" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="D193" s="33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B194" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C194" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="D194" s="27" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B195" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C195" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="D195" s="27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B196" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C196" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D196" s="27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B197" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C197" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="D197" s="27" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B198" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C198" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="D198" s="27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C199" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="D199" s="27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B200" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C200" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B201" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C201" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="D201" s="27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B202" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C202" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="D202" s="27" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B203" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C203" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D203" s="27" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B204" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C204" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="D204" s="27" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B205" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C205" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="D205" s="27" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B206" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C206" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="D206" s="27" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A207" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B207" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C207" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="D207" s="27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B208" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C208" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="D208" s="27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B209" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C209" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D209" s="27" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C210" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="D210" s="27" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B211" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C211" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="D211" s="27" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B212" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C212" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="D212" s="27" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B213" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C213" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="D213" s="27" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B214" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C214" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D214" s="27" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B215" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C215" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="D215" s="27" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B216" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C216" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D216" s="27" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B217" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C217" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="D217" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B218" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C218" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="D218" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B219" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C219" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="D219" s="27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B220" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C220" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="D220" s="27" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B221" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C221" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="D221" s="27" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B222" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C222" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="D222" s="27" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B223" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C223" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B224" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C224" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B225" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C225" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A226" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B226" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C226" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="D226" s="27" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B227" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C227" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B228" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C228" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="D228" s="27" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B229" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C229" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="D229" s="33" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A230" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B230" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C230" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="D230" s="33" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B231" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C231" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="D231" s="33" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B232" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C232" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="D232" s="33" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B233" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C233" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="D233" s="33" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B234" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C234" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="D234" s="33" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B235" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C235" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D235" s="33" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B236" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C236" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="D236" s="33" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B237" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C237" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="D237" s="33" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B238" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C238" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="D238" s="33" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B239" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C239" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="D239" s="33" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A240" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B240" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C240" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D240" s="27" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B241" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C241" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="D241" s="27" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B242" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C242" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="D242" s="27" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B243" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C243" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="D243" s="27" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B244" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C244" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="D244" s="27" t="s">
-        <v>563</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D244" xr:uid="{FE6ABA01-E42F-4AD9-9DCA-5173A2F5985A}"/>
+  <autoFilter ref="A1:D244" xr:uid="{FE6ABA01-E42F-4AD9-9DCA-5173A2F5985A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D244">
+      <sortCondition ref="A2:A244"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - contributor" xr:uid="{5D7E4A10-2307-4885-96AA-7AC433470D0A}"/>
-    <hyperlink ref="C3" r:id="rId2" location="owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - owner" xr:uid="{73AC5687-888F-4034-9941-F371BF4CDC0F}"/>
-    <hyperlink ref="C4" r:id="rId3" location="reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - reader" xr:uid="{652909E8-FAE3-4FCA-AAFD-7046E10B9AE3}"/>
-    <hyperlink ref="C5" r:id="rId4" location="user-access-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - user-access-administrator" xr:uid="{76F48416-FBE6-4A00-B415-6D6981C86E35}"/>
-    <hyperlink ref="C6" r:id="rId5" location="classic-virtual-machine-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-virtual-machine-contributor" xr:uid="{CA7BB391-DEFF-41A4-9BA1-96DF7EA0D67C}"/>
-    <hyperlink ref="C7" r:id="rId6" location="disk-backup-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-backup-reader" xr:uid="{02015686-7AE1-4BBE-97B4-5A2EED8B5CA6}"/>
-    <hyperlink ref="C8" r:id="rId7" location="disk-pool-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-pool-operator" xr:uid="{2B744303-E3EC-4A98-8B18-74BA679ED1D4}"/>
-    <hyperlink ref="C9" r:id="rId8" location="disk-restore-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-restore-operator" xr:uid="{3170E2B9-2972-4947-8988-8B87B3A55B3D}"/>
-    <hyperlink ref="C10" r:id="rId9" location="disk-snapshot-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-snapshot-contributor" xr:uid="{A73105B3-5D77-466A-8CFD-69A96393B497}"/>
-    <hyperlink ref="C11" r:id="rId10" location="virtual-machine-administrator-login" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - virtual-machine-administrator-login" xr:uid="{F9D814CD-FAF1-48FE-9C7B-08B9E594B4AD}"/>
-    <hyperlink ref="C12" r:id="rId11" location="virtual-machine-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - virtual-machine-contributor" xr:uid="{BDABD1B9-99A9-4C94-AA77-825D0F078DF7}"/>
-    <hyperlink ref="C13" r:id="rId12" location="virtual-machine-user-login" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - virtual-machine-user-login" xr:uid="{894087E6-2644-458A-81DF-667EED8F58A7}"/>
-    <hyperlink ref="C14" r:id="rId13" location="cdn-endpoint-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-endpoint-contributor" xr:uid="{5004C8FA-ECEB-48B1-8E4F-19581143CD33}"/>
-    <hyperlink ref="C15" r:id="rId14" location="cdn-endpoint-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-endpoint-reader" xr:uid="{53FF7DB7-0DE2-4DF0-8DEB-DE38ACB159EA}"/>
-    <hyperlink ref="C16" r:id="rId15" location="cdn-profile-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-profile-contributor" xr:uid="{54AEEFA6-C449-4F51-9932-9A1EE7729A10}"/>
-    <hyperlink ref="C17" r:id="rId16" location="cdn-profile-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-profile-reader" xr:uid="{69BAEA5D-1CC2-4166-85C5-61C3A7E70518}"/>
-    <hyperlink ref="C18" r:id="rId17" location="classic-network-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-network-contributor" xr:uid="{79A55183-4DBF-41FE-ACB9-0A1E51CDCD1A}"/>
-    <hyperlink ref="C19" r:id="rId18" location="dns-zone-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - dns-zone-contributor" xr:uid="{8148E1FC-607F-4176-A6CC-08B0126031CF}"/>
-    <hyperlink ref="C20" r:id="rId19" location="network-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - network-contributor" xr:uid="{D41D4BB9-1F7C-4DDC-A8F0-7B29A16E524F}"/>
-    <hyperlink ref="C21" r:id="rId20" location="private-dns-zone-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - private-dns-zone-contributor" xr:uid="{BAD398F0-27E2-4711-9A39-254BD40B3C5A}"/>
-    <hyperlink ref="C22" r:id="rId21" location="traffic-manager-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - traffic-manager-contributor" xr:uid="{A5CB6F49-BA10-480D-AF54-1E7419EAAC56}"/>
-    <hyperlink ref="C23" r:id="rId22" location="avere-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - avere-contributor" xr:uid="{3D7F1C1A-2EE2-45F4-B2DA-38CC38C1F806}"/>
-    <hyperlink ref="C24" r:id="rId23" location="avere-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - avere-operator" xr:uid="{82966983-BC8A-4B5F-BBE4-1D61359E1A55}"/>
-    <hyperlink ref="C25" r:id="rId24" location="backup-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - backup-contributor" xr:uid="{75FD037B-5D79-4FF3-B6DC-143EE7AF186D}"/>
-    <hyperlink ref="C26" r:id="rId25" location="backup-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - backup-operator" xr:uid="{D51D0C31-3163-4CA8-82D4-ECB82FA06B3E}"/>
-    <hyperlink ref="C27" r:id="rId26" location="backup-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - backup-reader" xr:uid="{0FF56584-16D7-458C-B53C-FEB327A47657}"/>
-    <hyperlink ref="C28" r:id="rId27" location="classic-storage-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-storage-account-contributor" xr:uid="{B6390373-9B52-494A-A81E-FE96FEAB9484}"/>
-    <hyperlink ref="C29" r:id="rId28" location="classic-storage-account-key-operator-service-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-storage-account-key-operator-service-role" xr:uid="{4064B91C-F435-4CC0-8E76-EA2AFC0A36A3}"/>
-    <hyperlink ref="C30" r:id="rId29" location="data-box-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-box-contributor" xr:uid="{C718EAA4-E19F-46BB-922D-7244AFDE45B9}"/>
-    <hyperlink ref="C31" r:id="rId30" location="data-box-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-box-reader" xr:uid="{C9D70337-9589-4AC1-B1D0-EB87DC6EA671}"/>
-    <hyperlink ref="C32" r:id="rId31" location="data-lake-analytics-developer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-lake-analytics-developer" xr:uid="{EE1D9CE4-D6C1-4922-9682-F24843965548}"/>
-    <hyperlink ref="C33" r:id="rId32" location="reader-and-data-access" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - reader-and-data-access" xr:uid="{8FA8FC0A-3DFA-478A-BF89-595C853CFC04}"/>
-    <hyperlink ref="C34" r:id="rId33" location="storage-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-account-contributor" xr:uid="{563183CD-4D59-4AA8-AE58-CB30303C6AA8}"/>
-    <hyperlink ref="C35" r:id="rId34" location="storage-account-key-operator-service-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-account-key-operator-service-role" xr:uid="{20CC9F59-78EF-4A52-A3D3-37DAD29D50DC}"/>
-    <hyperlink ref="C36" r:id="rId35" location="storage-blob-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-data-contributor" xr:uid="{3C89571A-1880-44FB-865C-58A784A3ECDB}"/>
-    <hyperlink ref="D36" r:id="rId36" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{C93F935E-F407-4850-806B-C6154E32163D}"/>
-    <hyperlink ref="C37" r:id="rId37" location="storage-blob-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-data-owner" xr:uid="{6993376B-CD18-411D-A42B-A77E7D7A9BED}"/>
-    <hyperlink ref="D37" r:id="rId38" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{EF451103-229F-455A-9E19-4014971A5A38}"/>
-    <hyperlink ref="C38" r:id="rId39" location="storage-blob-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-data-reader" xr:uid="{604C82FF-62D6-4385-9CDC-F727CDE63EF8}"/>
-    <hyperlink ref="D38" r:id="rId40" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{FB2F798F-37EE-4AAD-924B-783D52572163}"/>
-    <hyperlink ref="C39" r:id="rId41" location="storage-blob-delegator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-delegator" xr:uid="{D12106BF-78CA-47BA-AC65-E6F3881F70BF}"/>
-    <hyperlink ref="D39" r:id="rId42" display="https://docs.microsoft.com/en-us/rest/api/storageservices/create-user-delegation-sas" xr:uid="{0A570157-61A1-46E6-BBF8-E4C7165631FA}"/>
-    <hyperlink ref="C40" r:id="rId43" location="storage-file-data-smb-share-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-file-data-smb-share-contributor" xr:uid="{CDBF3C34-80CA-443F-9F00-D2D4CD185889}"/>
-    <hyperlink ref="C41" r:id="rId44" location="storage-file-data-smb-share-elevated-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-file-data-smb-share-elevated-contributor" xr:uid="{1155DE4B-5693-49B9-985B-F3AC04EF436B}"/>
-    <hyperlink ref="C42" r:id="rId45" location="storage-file-data-smb-share-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-file-data-smb-share-reader" xr:uid="{0F51CB4D-5B4B-4E1F-BB30-E8E0F92B6D4F}"/>
-    <hyperlink ref="C43" r:id="rId46" location="storage-queue-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-contributor" xr:uid="{AABDB041-D143-4A30-B1DD-F27892036933}"/>
-    <hyperlink ref="D43" r:id="rId47" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{8AC1ED34-CDED-43D4-8D02-44F6A00021F4}"/>
-    <hyperlink ref="C44" r:id="rId48" location="storage-queue-data-message-processor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-message-processor" xr:uid="{EC54817F-832C-4F97-B450-F5BC65F82C3A}"/>
-    <hyperlink ref="D44" r:id="rId49" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{E891EA14-6365-4EB6-81C5-B76BC390DA96}"/>
-    <hyperlink ref="C45" r:id="rId50" location="storage-queue-data-message-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-message-sender" xr:uid="{C5F793D3-14D7-4BE4-AD79-198E045C525C}"/>
-    <hyperlink ref="D45" r:id="rId51" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{BF125073-38F3-4E50-AF65-39C07BF07BDA}"/>
-    <hyperlink ref="C46" r:id="rId52" location="storage-queue-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-reader" xr:uid="{EFDA5B89-5B93-4F05-9D93-0349538531B4}"/>
-    <hyperlink ref="D46" r:id="rId53" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{28B58BA1-DE0D-4487-A84B-B94AFDDE1C29}"/>
-    <hyperlink ref="C47" r:id="rId54" location="storage-table-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-table-data-contributor" xr:uid="{78418FAE-91F3-4512-9586-72DD96784212}"/>
-    <hyperlink ref="C48" r:id="rId55" location="storage-table-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-table-data-reader" xr:uid="{140E6FC8-D57E-4044-B387-0CB7A058AA85}"/>
-    <hyperlink ref="C49" r:id="rId56" location="azure-maps-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-maps-data-contributor" xr:uid="{9BB88704-C4F7-4BDB-A740-5D0868BA1B1A}"/>
-    <hyperlink ref="C50" r:id="rId57" location="azure-maps-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-maps-data-reader" xr:uid="{C6D0EE7A-F92F-4CA2-AB1E-B5EB32227E1C}"/>
-    <hyperlink ref="C51" r:id="rId58" location="azure-spring-cloud-config-server-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-config-server-contributor" xr:uid="{1D6FE2FA-860A-48BA-AE70-851D41E65C3A}"/>
-    <hyperlink ref="C52" r:id="rId59" location="azure-spring-cloud-config-server-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-config-server-reader" xr:uid="{D7BC59F3-38BD-450A-8B99-021FCC2681DA}"/>
-    <hyperlink ref="C53" r:id="rId60" location="azure-spring-cloud-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-data-reader" xr:uid="{14855134-5DA8-4A36-82AE-F864001F4704}"/>
-    <hyperlink ref="C54" r:id="rId61" location="azure-spring-cloud-service-registry-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-service-registry-contributor" xr:uid="{73BBCFF5-BDC4-4A03-AF05-4D8419D3EA86}"/>
-    <hyperlink ref="C55" r:id="rId62" location="azure-spring-cloud-service-registry-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-service-registry-reader" xr:uid="{AD2F01E1-AB38-42D8-AEE4-F7CEE2432994}"/>
-    <hyperlink ref="C56" r:id="rId63" location="media-services-account-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-account-administrator" xr:uid="{3B5E6D5F-161E-43B5-B486-1AAC16753F1E}"/>
-    <hyperlink ref="C57" r:id="rId64" location="media-services-live-events-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-live-events-administrator" xr:uid="{66D3F5CE-0777-44CC-B0F3-5F778B1CDE49}"/>
-    <hyperlink ref="C58" r:id="rId65" location="media-services-media-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-media-operator" xr:uid="{46FCF4C5-0C4B-49D6-A9A3-0240AC34729E}"/>
-    <hyperlink ref="C59" r:id="rId66" location="media-services-policy-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-policy-administrator" xr:uid="{173DE59D-17D9-4234-BE5F-D011D809E596}"/>
-    <hyperlink ref="C60" r:id="rId67" location="media-services-streaming-endpoints-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-streaming-endpoints-administrator" xr:uid="{B4EEDCB2-A170-45E7-82B0-ADD357B16520}"/>
-    <hyperlink ref="C61" r:id="rId68" location="search-index-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - search-index-data-contributor" xr:uid="{D8D4B6FC-531F-4395-BD7B-B935E44880CE}"/>
-    <hyperlink ref="C62" r:id="rId69" location="search-index-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - search-index-data-reader" xr:uid="{CE9BC55F-00D8-496E-855B-264CA48116F0}"/>
-    <hyperlink ref="C63" r:id="rId70" location="search-service-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - search-service-contributor" xr:uid="{A5F4C7CD-6A7E-4AEA-88A9-523DA870AF04}"/>
-    <hyperlink ref="C64" r:id="rId71" location="signalr-accesskey-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-accesskey-reader" xr:uid="{2ACE8839-E7A4-4EAB-BF31-DEA7FD321BA9}"/>
-    <hyperlink ref="C65" r:id="rId72" location="signalr-app-server" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-app-server" xr:uid="{1E858FA2-89DC-45E0-B10A-674CD4CEC785}"/>
-    <hyperlink ref="C66" r:id="rId73" location="signalr-rest-api-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-rest-api-owner" xr:uid="{111D4CA4-2AE1-4BBE-B920-0623A5B13B50}"/>
-    <hyperlink ref="C67" r:id="rId74" location="signalr-rest-api-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-rest-api-reader" xr:uid="{82331359-3E5D-4A48-B74D-15837EB6F5A1}"/>
-    <hyperlink ref="C68" r:id="rId75" location="signalr-service-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-service-owner" xr:uid="{4206CF20-6110-4384-BE12-3C402FBE5911}"/>
-    <hyperlink ref="C69" r:id="rId76" location="signalrweb-pubsub-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalrweb-pubsub-contributor" xr:uid="{9B010675-36FE-48E5-A339-54A01356521E}"/>
-    <hyperlink ref="C70" r:id="rId77" location="web-plan-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - web-plan-contributor" xr:uid="{4AFEB7F1-BE73-490E-AB83-2E0E13DCEB2A}"/>
-    <hyperlink ref="C71" r:id="rId78" location="website-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - website-contributor" xr:uid="{16A5F494-CCCD-4E8C-9812-768FFCDC39D5}"/>
-    <hyperlink ref="C72" r:id="rId79" location="acrdelete" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrdelete" xr:uid="{5ACC3526-8551-4CF5-940B-F4FB3A14FB90}"/>
-    <hyperlink ref="C73" r:id="rId80" location="acrimagesigner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrimagesigner" xr:uid="{5D62BBFD-8468-4EA4-9188-22F95942A97D}"/>
-    <hyperlink ref="C74" r:id="rId81" location="acrpull" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrpull" xr:uid="{8BA4C35A-B7E2-4763-8BA3-8B3650AB5FC7}"/>
-    <hyperlink ref="C75" r:id="rId82" location="acrpush" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrpush" xr:uid="{F3433ECC-F7F2-4913-99E6-204E01E134FD}"/>
-    <hyperlink ref="C76" r:id="rId83" location="acrquarantinereader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrquarantinereader" xr:uid="{A1A87812-3169-4437-9C19-4EA7C2528AA4}"/>
-    <hyperlink ref="C77" r:id="rId84" location="acrquarantinewriter" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrquarantinewriter" xr:uid="{6508161F-365E-4BB8-B62E-B50D55741F7F}"/>
-    <hyperlink ref="C78" r:id="rId85" location="azure-kubernetes-service-cluster-admin-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-cluster-admin-role" xr:uid="{18F4511F-DD7C-4AFC-81FF-6D111DA383CB}"/>
-    <hyperlink ref="C79" r:id="rId86" location="azure-kubernetes-service-cluster-user-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-cluster-user-role" xr:uid="{B0DA8ADD-1286-4A65-89D4-04C296941FE2}"/>
-    <hyperlink ref="C80" r:id="rId87" location="azure-kubernetes-service-contributor-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-contributor-role" xr:uid="{DF76FF87-0057-4247-8075-0F8F620F1C94}"/>
-    <hyperlink ref="C81" r:id="rId88" location="azure-kubernetes-service-rbac-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-admin" xr:uid="{B15163EB-51CE-481F-AEB2-83C995945F41}"/>
-    <hyperlink ref="C82" r:id="rId89" location="azure-kubernetes-service-rbac-cluster-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-cluster-admin" xr:uid="{1658ACA8-AB67-489E-AF2E-15E55F198758}"/>
-    <hyperlink ref="C83" r:id="rId90" location="azure-kubernetes-service-rbac-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-reader" xr:uid="{E0B2DB07-9712-4D4B-B908-714D6A457B20}"/>
-    <hyperlink ref="C84" r:id="rId91" location="azure-kubernetes-service-rbac-writer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-writer" xr:uid="{B8DDCF76-6DB0-408F-94DD-2854929503DA}"/>
-    <hyperlink ref="C85" r:id="rId92" location="azure-connected-sql-server-onboarding" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-connected-sql-server-onboarding" xr:uid="{9225A49F-428E-4D39-B908-63FD818939D9}"/>
-    <hyperlink ref="C86" r:id="rId93" location="cosmos-db-account-reader-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmos-db-account-reader-role" xr:uid="{B1F20550-2BDD-4D25-A10C-9D558EE94B67}"/>
-    <hyperlink ref="D86" r:id="rId94" location="documentdb-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - documentdb-account-contributor" xr:uid="{056DE4EE-4226-4070-AD2B-CB1CEF875875}"/>
-    <hyperlink ref="C87" r:id="rId95" location="cosmos-db-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmos-db-operator" xr:uid="{8D698BF4-764D-4AE0-AC7F-B4B5E6A3E98A}"/>
-    <hyperlink ref="C88" r:id="rId96" location="cosmosbackupoperator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmosbackupoperator" xr:uid="{C15E1492-9501-4E8E-A183-7C8E8FF3F310}"/>
-    <hyperlink ref="C89" r:id="rId97" location="cosmosrestoreoperator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmosrestoreoperator" xr:uid="{724ACAA7-49C8-4BD1-A957-4B37D6663E27}"/>
-    <hyperlink ref="C90" r:id="rId98" location="documentdb-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - documentdb-account-contributor" xr:uid="{CE7128FA-8CF2-434D-881E-5456B730F3C5}"/>
-    <hyperlink ref="C91" r:id="rId99" location="redis-cache-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - redis-cache-contributor" xr:uid="{06AE44A7-5D63-4974-86E4-5798F4C04C60}"/>
-    <hyperlink ref="C92" r:id="rId100" location="sql-db-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-db-contributor" xr:uid="{DCB5DBB9-B1D6-4C89-A243-E8730C7C93E9}"/>
-    <hyperlink ref="C93" r:id="rId101" location="sql-managed-instance-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-managed-instance-contributor" xr:uid="{98A00C80-83C5-4B05-A128-491DBC1867DC}"/>
-    <hyperlink ref="C94" r:id="rId102" location="sql-security-manager" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-security-manager" xr:uid="{70BAD8B0-4753-43B7-A8DD-F7134E1893B7}"/>
-    <hyperlink ref="C95" r:id="rId103" location="sql-server-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-server-contributor" xr:uid="{1ED2F903-6129-4D88-8E12-9833BB646BAF}"/>
-    <hyperlink ref="C96" r:id="rId104" location="azure-event-hubs-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-event-hubs-data-owner" xr:uid="{491C4AC0-93FD-4999-91A2-3B59D912880D}"/>
-    <hyperlink ref="C97" r:id="rId105" location="azure-event-hubs-data-receiver" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-event-hubs-data-receiver" xr:uid="{726AE1F7-5E9F-49B3-A543-DB39B3497792}"/>
-    <hyperlink ref="C98" r:id="rId106" location="azure-event-hubs-data-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-event-hubs-data-sender" xr:uid="{A06DEC0A-24D0-4376-84ED-3064D8A70C7D}"/>
-    <hyperlink ref="C99" r:id="rId107" location="data-factory-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-factory-contributor" xr:uid="{60EAEE91-2E9E-4C15-927E-4A5F0DCEF15F}"/>
-    <hyperlink ref="C100" r:id="rId108" location="data-purger" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-purger" xr:uid="{71465915-4E86-41E0-B1DE-1D31146F0A03}"/>
-    <hyperlink ref="C101" r:id="rId109" location="hdinsight-cluster-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - hdinsight-cluster-operator" xr:uid="{5E6F5075-2DBE-42AA-8C53-F43A72C4C818}"/>
-    <hyperlink ref="C102" r:id="rId110" location="hdinsight-domain-services-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - hdinsight-domain-services-contributor" xr:uid="{4404C16E-547B-4077-88DB-B1597EE4932E}"/>
-    <hyperlink ref="C103" r:id="rId111" location="log-analytics-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - log-analytics-contributor" xr:uid="{67F0705E-274B-42E3-A045-A6E545D05B0C}"/>
-    <hyperlink ref="C104" r:id="rId112" location="log-analytics-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - log-analytics-reader" xr:uid="{702256A8-915E-46A1-9ED5-E22F9FEDEEF8}"/>
-    <hyperlink ref="C105" r:id="rId113" location="schema-registry-contributor-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - schema-registry-contributor-preview" xr:uid="{3814DDE5-A88F-433C-810C-73142B4A83E3}"/>
-    <hyperlink ref="C106" r:id="rId114" location="schema-registry-reader-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - schema-registry-reader-preview" xr:uid="{342325F1-30D4-4A9C-8DB1-F9B8BDF10A93}"/>
-    <hyperlink ref="C107" r:id="rId115" location="stream-analytics-query-tester" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - stream-analytics-query-tester" xr:uid="{D96DFE47-8EA8-49E2-8B73-D423D62B6A63}"/>
-    <hyperlink ref="C108" r:id="rId116" location="azureml-data-scientist" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azureml-data-scientist" xr:uid="{D7A5EFA0-663E-4CE3-8ED4-932BE00F60DB}"/>
-    <hyperlink ref="C109" r:id="rId117" location="cognitive-services-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-contributor" xr:uid="{9C709063-4767-4CEB-A8A5-DE0938D59F1A}"/>
-    <hyperlink ref="C110" r:id="rId118" location="cognitive-services-custom-vision-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-contributor" xr:uid="{7AF6FFC4-0233-4BAC-893F-DE970EBB2BBE}"/>
-    <hyperlink ref="C111" r:id="rId119" location="cognitive-services-custom-vision-deployment" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-deployment" xr:uid="{8D2EDD3B-E6E8-402A-A91F-9048BC22248B}"/>
-    <hyperlink ref="C112" r:id="rId120" location="cognitive-services-custom-vision-labeler" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-labeler" xr:uid="{F8338B03-0206-4EC5-92A2-8A2F1C7D4D14}"/>
-    <hyperlink ref="C113" r:id="rId121" location="cognitive-services-custom-vision-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-reader" xr:uid="{28B05824-14F8-413D-9CC7-76B6F93AFC29}"/>
-    <hyperlink ref="C114" r:id="rId122" location="cognitive-services-custom-vision-trainer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-trainer" xr:uid="{90EEE218-D3D1-42A7-9140-97BB6CC4DBA3}"/>
-    <hyperlink ref="C115" r:id="rId123" location="cognitive-services-data-reader-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-data-reader-preview" xr:uid="{92C33BBB-94A7-40DB-B53B-946C40EE8F56}"/>
-    <hyperlink ref="C116" r:id="rId124" location="cognitive-services-face-recognizer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-face-recognizer" xr:uid="{E987B131-9E89-4E74-A896-FF51FE293297}"/>
-    <hyperlink ref="C117" r:id="rId125" location="cognitive-services-metrics-advisor-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-metrics-advisor-administrator" xr:uid="{819AF92F-A04F-4AE0-A51D-79654ED13A88}"/>
-    <hyperlink ref="C118" r:id="rId126" location="cognitive-services-qna-maker-editor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-qna-maker-editor" xr:uid="{C9A8EAA3-092D-4D74-88E0-C64E97203B2F}"/>
-    <hyperlink ref="C119" r:id="rId127" location="cognitive-services-qna-maker-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-qna-maker-reader" xr:uid="{9AFA30EB-70E4-4FEE-AF97-B9752FF5B595}"/>
-    <hyperlink ref="C120" r:id="rId128" location="cognitive-services-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-user" xr:uid="{28B20D2B-2C5D-4645-AE0A-AA8C0A2832ED}"/>
-    <hyperlink ref="C121" r:id="rId129" location="device-update-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-administrator" xr:uid="{EBDA05DB-C13B-48D3-BF4A-BEE3281093CA}"/>
-    <hyperlink ref="C122" r:id="rId130" location="device-update-content-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-content-administrator" xr:uid="{16E9356A-CE0A-433A-BA6B-A60D2726B54D}"/>
-    <hyperlink ref="C123" r:id="rId131" location="device-update-content-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-content-reader" xr:uid="{96D4FFF1-E769-4382-862F-10E5CAFC16A5}"/>
-    <hyperlink ref="C124" r:id="rId132" location="device-update-deployments-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-deployments-administrator" xr:uid="{581D68DE-3FEE-4B0F-9E7A-4EB71D739406}"/>
-    <hyperlink ref="C125" r:id="rId133" location="device-update-deployments-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-deployments-reader" xr:uid="{488B2F3D-11EC-4715-BB39-EDF8404D9403}"/>
-    <hyperlink ref="C126" r:id="rId134" location="device-update-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-reader" xr:uid="{71F1E8B6-34CF-4594-A92A-BD225C4BF173}"/>
-    <hyperlink ref="C127" r:id="rId135" location="iot-hub-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-data-contributor" xr:uid="{8072E78D-FAFB-478B-A0BF-49806BABA139}"/>
-    <hyperlink ref="C128" r:id="rId136" location="iot-hub-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-data-reader" xr:uid="{564A5854-8C47-4FFD-AA22-CBCD07335DC0}"/>
-    <hyperlink ref="C129" r:id="rId137" location="iot-hub-registry-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-registry-contributor" xr:uid="{682A6FAD-BB8B-498B-8963-0CA4147ECEAB}"/>
-    <hyperlink ref="C130" r:id="rId138" location="iot-hub-twin-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-twin-contributor" xr:uid="{F0B91F65-6FC8-4F92-9580-FBAF22A1B951}"/>
-    <hyperlink ref="C131" r:id="rId139" location="remote-rendering-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - remote-rendering-administrator" xr:uid="{E6194840-C516-4190-B4F5-391477FCFE7E}"/>
-    <hyperlink ref="C132" r:id="rId140" location="remote-rendering-client" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - remote-rendering-client" xr:uid="{77798432-28B5-4A3C-B67B-D754E5217CD9}"/>
-    <hyperlink ref="C133" r:id="rId141" location="spatial-anchors-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - spatial-anchors-account-contributor" xr:uid="{31FAA493-5904-4D0C-90C9-73CE0E74CEDC}"/>
-    <hyperlink ref="C134" r:id="rId142" location="spatial-anchors-account-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - spatial-anchors-account-owner" xr:uid="{9E54BC67-4772-49A8-B9F6-35A2890A2FC9}"/>
-    <hyperlink ref="C135" r:id="rId143" location="spatial-anchors-account-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - spatial-anchors-account-reader" xr:uid="{DD9A600F-7189-4CAB-A1B6-7E68C8ED8CCA}"/>
-    <hyperlink ref="C136" r:id="rId144" location="api-management-service-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - api-management-service-contributor" xr:uid="{FD8D81F2-E7F0-4B4F-A4E9-16AF1C0EDF28}"/>
-    <hyperlink ref="C137" r:id="rId145" location="api-management-service-operator-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - api-management-service-operator-role" xr:uid="{8C10430F-5560-44A8-8640-8438696D9D72}"/>
-    <hyperlink ref="C138" r:id="rId146" location="api-management-service-reader-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - api-management-service-reader-role" xr:uid="{9DDBF4BA-D1A2-48C4-82F8-7DB60BCE3770}"/>
-    <hyperlink ref="C139" r:id="rId147" location="app-configuration-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - app-configuration-data-owner" xr:uid="{2458BBF5-19E1-447F-99FE-CB1E18E8F04F}"/>
-    <hyperlink ref="C140" r:id="rId148" location="app-configuration-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - app-configuration-data-reader" xr:uid="{E57093EF-8A92-45BB-AD20-D90FEDA3CF79}"/>
-    <hyperlink ref="C141" r:id="rId149" location="azure-relay-listener" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-relay-listener" xr:uid="{48042C3E-E459-4FA7-B76A-3191D682AC44}"/>
-    <hyperlink ref="C142" r:id="rId150" location="azure-relay-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-relay-owner" xr:uid="{EE55986F-CD92-49B7-BB2D-0ECD61245A76}"/>
-    <hyperlink ref="C143" r:id="rId151" location="azure-relay-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-relay-sender" xr:uid="{67846C23-E277-45DA-8446-AE79EF3EF7D5}"/>
-    <hyperlink ref="C144" r:id="rId152" location="azure-service-bus-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-service-bus-data-owner" xr:uid="{3379A5ED-F1BE-4CE5-85D8-CF63B0DA2F29}"/>
-    <hyperlink ref="C145" r:id="rId153" location="azure-service-bus-data-receiver" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-service-bus-data-receiver" xr:uid="{3ADC4D59-DC91-408A-8C25-3BA7300042A3}"/>
-    <hyperlink ref="C146" r:id="rId154" location="azure-service-bus-data-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-service-bus-data-sender" xr:uid="{820F6648-839C-4F58-BC3C-A485E4265741}"/>
-    <hyperlink ref="C147" r:id="rId155" location="azure-stack-registration-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-stack-registration-owner" xr:uid="{E19B474C-A788-411E-B3CD-9EC23B158722}"/>
-    <hyperlink ref="C148" r:id="rId156" location="eventgrid-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-contributor" xr:uid="{CD5715EA-6964-4290-968F-4F5629AFE707}"/>
-    <hyperlink ref="C149" r:id="rId157" location="eventgrid-data-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-data-sender" xr:uid="{0E66B45D-5338-4C89-9B2C-27A3652AD900}"/>
-    <hyperlink ref="C150" r:id="rId158" location="eventgrid-eventsubscription-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-eventsubscription-contributor" xr:uid="{FC6B4026-1DE5-4918-9B70-0A00208472EF}"/>
-    <hyperlink ref="C151" r:id="rId159" location="eventgrid-eventsubscription-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-eventsubscription-reader" xr:uid="{BE22DC53-719D-4523-9EB9-11B1431A07B2}"/>
-    <hyperlink ref="C152" r:id="rId160" location="fhir-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-contributor" xr:uid="{87839C7B-8887-48EA-8874-83C3FD6CAAFC}"/>
-    <hyperlink ref="C153" r:id="rId161" location="fhir-data-exporter" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-exporter" xr:uid="{54D6C69F-A567-4A3C-83F5-6DF3A098EDE8}"/>
-    <hyperlink ref="C154" r:id="rId162" location="fhir-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-reader" xr:uid="{C458FE50-2773-4C0E-899D-BD5549AF77D6}"/>
-    <hyperlink ref="C155" r:id="rId163" location="fhir-data-writer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-writer" xr:uid="{128CA6CD-23B4-4289-8E10-452750A5CE0C}"/>
-    <hyperlink ref="C156" r:id="rId164" location="integration-service-environment-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - integration-service-environment-contributor" xr:uid="{F1C0896F-0933-4035-AD69-640BDE77C936}"/>
-    <hyperlink ref="C157" r:id="rId165" location="integration-service-environment-developer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - integration-service-environment-developer" xr:uid="{C826B806-D793-42E3-9A2B-43F106070C02}"/>
-    <hyperlink ref="C158" r:id="rId166" location="intelligent-systems-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - intelligent-systems-account-contributor" xr:uid="{6AB98511-9E83-4072-9713-6DF60E7FA918}"/>
-    <hyperlink ref="C159" r:id="rId167" location="logic-app-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - logic-app-contributor" xr:uid="{7DB120EC-E605-4571-B73C-044E9D27D30B}"/>
-    <hyperlink ref="C160" r:id="rId168" location="logic-app-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - logic-app-operator" xr:uid="{0E0DE873-CB9D-4DB8-BBBD-1E2AFE75A111}"/>
-    <hyperlink ref="C161" r:id="rId169" location="domain-services-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - domain-services-contributor" xr:uid="{397C746C-7142-4C63-9091-EC47E92659D0}"/>
-    <hyperlink ref="C162" r:id="rId170" location="domain-services-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - domain-services-reader" xr:uid="{CF2D5C29-935E-4F8C-AA2B-D538AD1A0FB0}"/>
-    <hyperlink ref="C163" r:id="rId171" location="managed-identity-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-identity-contributor" xr:uid="{0B82011E-9A19-4743-AA73-408E80D9C5C5}"/>
-    <hyperlink ref="C164" r:id="rId172" location="managed-identity-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-identity-operator" xr:uid="{58F82299-44CF-4A49-9212-EFB0A7BB2512}"/>
-    <hyperlink ref="C165" r:id="rId173" location="attestation-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - attestation-contributor" xr:uid="{FA4C4B9A-3F72-42F7-902B-B3C5F1F8462A}"/>
-    <hyperlink ref="C166" r:id="rId174" location="attestation-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - attestation-reader" xr:uid="{039C6003-3A4F-4347-A1AB-98AE539C7C6D}"/>
-    <hyperlink ref="C167" r:id="rId175" location="key-vault-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-administrator" xr:uid="{34FF6B2A-B402-4F76-9B4B-3493C573ABC8}"/>
-    <hyperlink ref="C168" r:id="rId176" location="key-vault-certificates-officer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-certificates-officer" xr:uid="{EFB01B00-9951-493C-82E1-7CD52CACB1D5}"/>
-    <hyperlink ref="C169" r:id="rId177" location="key-vault-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-contributor" xr:uid="{38CB4A67-464C-43AC-B1A8-397359791D46}"/>
-    <hyperlink ref="C170" r:id="rId178" location="key-vault-crypto-officer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-crypto-officer" xr:uid="{4B774E16-57BE-4919-9F38-28997C4DB20C}"/>
-    <hyperlink ref="C171" r:id="rId179" location="key-vault-crypto-service-encryption-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-crypto-service-encryption-user" xr:uid="{5965DFD4-C43B-45FB-8A88-544E7BE5C0A9}"/>
-    <hyperlink ref="C172" r:id="rId180" location="key-vault-crypto-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-crypto-user" xr:uid="{918DAA03-C0D3-4602-B3AC-761F7DCEE820}"/>
-    <hyperlink ref="C173" r:id="rId181" location="key-vault-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-reader" xr:uid="{87D97D68-D227-4CF0-A4B9-4E428CC56DE7}"/>
-    <hyperlink ref="C174" r:id="rId182" location="key-vault-secrets-officer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-secrets-officer" xr:uid="{34CA16AD-6400-46B4-8034-14868E882F87}"/>
-    <hyperlink ref="C175" r:id="rId183" location="key-vault-secrets-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-secrets-user" xr:uid="{D27E0DA0-7A0F-451B-9E04-C96BBA0CB5A0}"/>
-    <hyperlink ref="C176" r:id="rId184" location="managed-hsm-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-hsm-contributor" xr:uid="{157B4C36-3A45-4D6C-9539-7A9224E1D317}"/>
-    <hyperlink ref="C177" r:id="rId185" location="microsoft-sentinel-automation-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-automation-contributor" xr:uid="{74699E4B-D970-487A-BB7B-AAFF9A1B54A9}"/>
-    <hyperlink ref="C178" r:id="rId186" location="microsoft-sentinel-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-contributor" xr:uid="{CFBF1694-328C-44BD-AF6C-575655DA48DF}"/>
-    <hyperlink ref="C179" r:id="rId187" location="microsoft-sentinel-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-reader" xr:uid="{5AED3333-9A9D-40D5-89F0-409EC27FB283}"/>
-    <hyperlink ref="C180" r:id="rId188" location="microsoft-sentinel-responder" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-responder" xr:uid="{27F4728D-AF28-47BB-BEC5-93380A6D9125}"/>
-    <hyperlink ref="C181" r:id="rId189" location="security-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-admin" xr:uid="{0E26477A-9046-41AA-81B4-D87D9146C7FA}"/>
-    <hyperlink ref="C182" r:id="rId190" location="security-assessment-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-assessment-contributor" xr:uid="{CDC70284-0586-4911-8D8B-7DE13966C6AC}"/>
-    <hyperlink ref="C183" r:id="rId191" location="security-manager-legacy" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-manager-legacy" xr:uid="{B30B4272-3CFB-49D9-BB05-31966C7D8174}"/>
-    <hyperlink ref="C184" r:id="rId192" location="security-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-reader" xr:uid="{3BAEC504-97CD-4851-8AC1-3EC58DC8851E}"/>
-    <hyperlink ref="C185" r:id="rId193" location="devtest-labs-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - devtest-labs-user" xr:uid="{C61330C5-55D0-48D9-8644-79FF57AF5F82}"/>
-    <hyperlink ref="C186" r:id="rId194" location="lab-creator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - lab-creator" xr:uid="{56DE3FB5-2479-4EDD-A967-7C4FB8302526}"/>
-    <hyperlink ref="C187" r:id="rId195" location="application-insights-component-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - application-insights-component-contributor" xr:uid="{81AEA8EF-7B79-4BAD-A316-E3DF42F39B95}"/>
-    <hyperlink ref="C188" r:id="rId196" location="application-insights-snapshot-debugger" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - application-insights-snapshot-debugger" xr:uid="{79F9D6BA-D4A8-4331-ADEE-824A1943D5B4}"/>
-    <hyperlink ref="C189" r:id="rId197" location="monitoring-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - monitoring-contributor" xr:uid="{53B9AF99-91D9-4F62-9232-E9D986B4667D}"/>
-    <hyperlink ref="D189" r:id="rId198" location="built-in-monitoring-roles" display="https://docs.microsoft.com/en-us/azure/azure-monitor/roles-permissions-security - built-in-monitoring-roles" xr:uid="{743CC296-551F-418D-AF60-5159FF1A7495}"/>
-    <hyperlink ref="C190" r:id="rId199" location="monitoring-metrics-publisher" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - monitoring-metrics-publisher" xr:uid="{4D3CA32B-4D53-4868-BB4D-332AC2505D80}"/>
-    <hyperlink ref="C191" r:id="rId200" location="monitoring-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - monitoring-reader" xr:uid="{E505A643-736A-4880-9A1A-F684615D5CCB}"/>
-    <hyperlink ref="D191" r:id="rId201" location="built-in-monitoring-roles" display="https://docs.microsoft.com/en-us/azure/azure-monitor/roles-permissions-security - built-in-monitoring-roles" xr:uid="{B709D954-691C-4136-843A-A987D8D84D1C}"/>
-    <hyperlink ref="C192" r:id="rId202" location="workbook-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - workbook-contributor" xr:uid="{2BC3A3A7-7F6D-4701-8A0C-6C1E51FF1D29}"/>
-    <hyperlink ref="C193" r:id="rId203" location="workbook-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - workbook-reader" xr:uid="{FDC9A4FA-C543-486A-A73B-1E024F461EC3}"/>
-    <hyperlink ref="C194" r:id="rId204" location="automation-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-contributor" xr:uid="{3B57CF3E-BBDB-42DF-8760-FF6B311DD50E}"/>
-    <hyperlink ref="C195" r:id="rId205" location="automation-job-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-job-operator" xr:uid="{7AD8B1C7-C08B-435C-852B-F83D8EE44C48}"/>
-    <hyperlink ref="C196" r:id="rId206" location="automation-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-operator" xr:uid="{332984AF-00F7-48C5-B190-CE46B3B23477}"/>
-    <hyperlink ref="C197" r:id="rId207" location="automation-runbook-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-runbook-operator" xr:uid="{0E3501B3-F52B-4E48-8DF3-10E499CABC59}"/>
-    <hyperlink ref="C198" r:id="rId208" location="azure-arc-enabled-kubernetes-cluster-user-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-enabled-kubernetes-cluster-user-role" xr:uid="{71E6F65B-B03E-454B-9E24-1AEC35648841}"/>
-    <hyperlink ref="C199" r:id="rId209" location="azure-arc-kubernetes-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-admin" xr:uid="{DE652CFD-2CCA-411D-A9DA-10BB9E685402}"/>
-    <hyperlink ref="C200" r:id="rId210" location="azure-arc-kubernetes-cluster-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-cluster-admin" xr:uid="{87615989-0192-445E-A3A0-BBF5522467E9}"/>
-    <hyperlink ref="C201" r:id="rId211" location="azure-arc-kubernetes-viewer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-viewer" xr:uid="{B0AAD822-DF0E-4416-9FFF-70197A5AC035}"/>
-    <hyperlink ref="C202" r:id="rId212" location="azure-arc-kubernetes-writer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-writer" xr:uid="{DA3B6507-C92E-43C1-B3A6-FEE50AF3D449}"/>
-    <hyperlink ref="C203" r:id="rId213" location="azure-connected-machine-onboarding" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-connected-machine-onboarding" xr:uid="{EE65740C-3B6F-41F3-A788-C04C74E29ECE}"/>
-    <hyperlink ref="C204" r:id="rId214" location="azure-connected-machine-resource-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-connected-machine-resource-administrator" xr:uid="{5531940D-D510-4D29-A024-1BC1FA0B997C}"/>
-    <hyperlink ref="C205" r:id="rId215" location="billing-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - billing-reader" xr:uid="{554C7C1F-90F9-44C6-8498-F92AF1804C99}"/>
-    <hyperlink ref="C206" r:id="rId216" location="blueprint-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - blueprint-contributor" xr:uid="{19AED8DE-F156-4B6F-B1C9-CE6238A37984}"/>
-    <hyperlink ref="C207" r:id="rId217" location="blueprint-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - blueprint-operator" xr:uid="{39C22E83-2B53-48DC-AC22-9F1D90D9D4D9}"/>
-    <hyperlink ref="C208" r:id="rId218" location="cost-management-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cost-management-contributor" xr:uid="{EE9D287A-6815-4345-B5D7-0814E13ED917}"/>
-    <hyperlink ref="C209" r:id="rId219" location="cost-management-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cost-management-reader" xr:uid="{5D468BE2-E1FB-46F5-A725-3B4C75E1603B}"/>
-    <hyperlink ref="C210" r:id="rId220" location="hierarchy-settings-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - hierarchy-settings-administrator" xr:uid="{16D7D69F-75B6-49A0-A8E2-CC94643E070C}"/>
-    <hyperlink ref="C211" r:id="rId221" location="kubernetes-cluster---azure-arc-onboarding" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - kubernetes-cluster---azure-arc-onboarding" xr:uid="{8FBAE085-B5F6-4BCE-ACBB-10447FF6252A}"/>
-    <hyperlink ref="C212" r:id="rId222" location="kubernetes-extension-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - kubernetes-extension-contributor" xr:uid="{3E178FCF-7881-4843-B3F5-416247745E85}"/>
-    <hyperlink ref="C213" r:id="rId223" location="managed-application-contributor-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-application-contributor-role" xr:uid="{DEB162B4-A12B-4835-924C-F5EAD8EF88A1}"/>
-    <hyperlink ref="C214" r:id="rId224" location="managed-application-operator-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-application-operator-role" xr:uid="{F5A851CA-6B75-461B-9477-82CBF6D33A44}"/>
-    <hyperlink ref="C215" r:id="rId225" location="managed-applications-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-applications-reader" xr:uid="{DACE58A7-6538-4694-A1C5-A52CF7A005E2}"/>
-    <hyperlink ref="C216" r:id="rId226" location="managed-services-registration-assignment-delete-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-services-registration-assignment-delete-role" xr:uid="{3759E24A-9098-4C70-BCD3-94F0BD4236B8}"/>
-    <hyperlink ref="C217" r:id="rId227" location="management-group-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - management-group-contributor" xr:uid="{B089BB41-1695-4D21-9261-2FAF494BB156}"/>
-    <hyperlink ref="C218" r:id="rId228" location="management-group-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - management-group-reader" xr:uid="{85EAC97F-0A09-44C3-8F61-332BC1D80F7B}"/>
-    <hyperlink ref="C219" r:id="rId229" location="new-relic-apm-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - new-relic-apm-account-contributor" xr:uid="{C892C852-AA04-428F-83DD-4084EE64DEDB}"/>
-    <hyperlink ref="C220" r:id="rId230" location="policy-insights-data-writer-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - policy-insights-data-writer-preview" xr:uid="{91EA6E03-465C-4295-94F7-7A0098D3550D}"/>
-    <hyperlink ref="C221" r:id="rId231" location="quota-request-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - quota-request-operator" xr:uid="{F489A1C4-2F90-412A-93CD-8054F1820144}"/>
-    <hyperlink ref="C222" r:id="rId232" location="reservation-purchaser" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - reservation-purchaser" xr:uid="{E3A9BD3B-714C-4570-BF02-E764CA355D9E}"/>
-    <hyperlink ref="C223" r:id="rId233" location="resource-policy-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - resource-policy-contributor" xr:uid="{07800F9D-3C82-45B9-9EC6-B194FEC289B5}"/>
-    <hyperlink ref="C224" r:id="rId234" location="site-recovery-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - site-recovery-contributor" xr:uid="{0D20EC58-1607-4009-8BDA-13A331CD99A6}"/>
-    <hyperlink ref="C225" r:id="rId235" location="site-recovery-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - site-recovery-operator" xr:uid="{72DAAB12-2D00-468E-8DA0-6FEDBCBF5550}"/>
-    <hyperlink ref="C226" r:id="rId236" location="site-recovery-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - site-recovery-reader" xr:uid="{2A77D629-C36A-4F4B-8984-490DBBDF7A81}"/>
-    <hyperlink ref="C227" r:id="rId237" location="support-request-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - support-request-contributor" xr:uid="{A300DECA-E898-4D0A-A1D9-E81484A97397}"/>
-    <hyperlink ref="C228" r:id="rId238" location="tag-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - tag-contributor" xr:uid="{3E3C9C53-6D2B-4D6A-A9EB-7A54E57040D5}"/>
-    <hyperlink ref="C229" r:id="rId239" location="desktop-virtualization-application-group-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-application-group-contributor" xr:uid="{5EA353C6-37EC-4AC0-A5BE-0FA997482F26}"/>
-    <hyperlink ref="C230" r:id="rId240" location="desktop-virtualization-application-group-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-application-group-reader" xr:uid="{5ABB041E-F40E-4784-BF97-E433BA7E9CC6}"/>
-    <hyperlink ref="C231" r:id="rId241" location="desktop-virtualization-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-contributor" xr:uid="{459EC3F4-151B-4F94-B2F3-2581286EBC46}"/>
-    <hyperlink ref="C232" r:id="rId242" location="desktop-virtualization-host-pool-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-host-pool-contributor" xr:uid="{BD6C6CC2-6DC0-4596-82C0-692494A9D7A3}"/>
-    <hyperlink ref="C233" r:id="rId243" location="desktop-virtualization-host-pool-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-host-pool-reader" xr:uid="{CD6DFD02-CD82-4668-87A9-93CA29D1D9B2}"/>
-    <hyperlink ref="C234" r:id="rId244" location="desktop-virtualization-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-reader" xr:uid="{AA00DC06-260C-41FD-BF97-D2471E5B2078}"/>
-    <hyperlink ref="C235" r:id="rId245" location="desktop-virtualization-session-host-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-session-host-operator" xr:uid="{7BC8B0DE-58D9-430F-B752-A6157A0D673E}"/>
-    <hyperlink ref="C236" r:id="rId246" location="desktop-virtualization-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-user" xr:uid="{D2CE7465-DB0B-4C54-AE0A-6F7AFE8536A1}"/>
-    <hyperlink ref="C237" r:id="rId247" location="desktop-virtualization-user-session-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-user-session-operator" xr:uid="{63B04FD5-E022-4F7E-AAB8-9814D498CAC8}"/>
-    <hyperlink ref="C238" r:id="rId248" location="desktop-virtualization-workspace-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-workspace-contributor" xr:uid="{D0226028-9EDD-4E3E-9287-0C3A69AE945D}"/>
-    <hyperlink ref="C239" r:id="rId249" location="desktop-virtualization-workspace-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-workspace-reader" xr:uid="{3A4F639D-DCEC-4D8A-ABAC-C11B854B98F8}"/>
-    <hyperlink ref="C240" r:id="rId250" location="azure-digital-twins-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-digital-twins-data-owner" xr:uid="{D47F6A9C-5B23-4C7C-B32D-F9474DED534C}"/>
-    <hyperlink ref="C241" r:id="rId251" location="azure-digital-twins-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-digital-twins-data-reader" xr:uid="{EB9126FB-5A13-4EEC-9402-30C556276A1D}"/>
-    <hyperlink ref="C242" r:id="rId252" location="biztalk-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - biztalk-contributor" xr:uid="{B3F7B096-761C-4ABA-9516-8C1F652E102D}"/>
-    <hyperlink ref="C243" r:id="rId253" location="scheduler-job-collections-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - scheduler-job-collections-contributor" xr:uid="{44753A56-65AD-4D00-882D-42A591A6CF7D}"/>
-    <hyperlink ref="C244" r:id="rId254" location="services-hub-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - services-hub-operator" xr:uid="{6EF46091-AB9B-4C37-B926-53394DBECF65}"/>
+    <hyperlink ref="A17" r:id="rId1" location="contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - contributor" xr:uid="{5D7E4A10-2307-4885-96AA-7AC433470D0A}"/>
+    <hyperlink ref="A27" r:id="rId2" location="owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - owner" xr:uid="{73AC5687-888F-4034-9941-F371BF4CDC0F}"/>
+    <hyperlink ref="A109" r:id="rId3" location="reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - reader" xr:uid="{652909E8-FAE3-4FCA-AAFD-7046E10B9AE3}"/>
+    <hyperlink ref="A35" r:id="rId4" location="user-access-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - user-access-administrator" xr:uid="{76F48416-FBE6-4A00-B415-6D6981C86E35}"/>
+    <hyperlink ref="A15" r:id="rId5" location="classic-virtual-machine-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-virtual-machine-contributor" xr:uid="{CA7BB391-DEFF-41A4-9BA1-96DF7EA0D67C}"/>
+    <hyperlink ref="A171" r:id="rId6" location="disk-backup-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-backup-reader" xr:uid="{02015686-7AE1-4BBE-97B4-5A2EED8B5CA6}"/>
+    <hyperlink ref="A74" r:id="rId7" location="disk-pool-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-pool-operator" xr:uid="{2B744303-E3EC-4A98-8B18-74BA679ED1D4}"/>
+    <hyperlink ref="A75" r:id="rId8" location="disk-restore-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-restore-operator" xr:uid="{3170E2B9-2972-4947-8988-8B87B3A55B3D}"/>
+    <hyperlink ref="A76" r:id="rId9" location="disk-snapshot-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - disk-snapshot-contributor" xr:uid="{A73105B3-5D77-466A-8CFD-69A96393B497}"/>
+    <hyperlink ref="A36" r:id="rId10" location="virtual-machine-administrator-login" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - virtual-machine-administrator-login" xr:uid="{F9D814CD-FAF1-48FE-9C7B-08B9E594B4AD}"/>
+    <hyperlink ref="A37" r:id="rId11" location="virtual-machine-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - virtual-machine-contributor" xr:uid="{BDABD1B9-99A9-4C94-AA77-825D0F078DF7}"/>
+    <hyperlink ref="A197" r:id="rId12" location="virtual-machine-user-login" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - virtual-machine-user-login" xr:uid="{894087E6-2644-458A-81DF-667EED8F58A7}"/>
+    <hyperlink ref="A56" r:id="rId13" location="cdn-endpoint-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-endpoint-contributor" xr:uid="{5004C8FA-ECEB-48B1-8E4F-19581143CD33}"/>
+    <hyperlink ref="A152" r:id="rId14" location="cdn-endpoint-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-endpoint-reader" xr:uid="{53FF7DB7-0DE2-4DF0-8DEB-DE38ACB159EA}"/>
+    <hyperlink ref="A57" r:id="rId15" location="cdn-profile-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-profile-contributor" xr:uid="{54AEEFA6-C449-4F51-9932-9A1EE7729A10}"/>
+    <hyperlink ref="A153" r:id="rId16" location="cdn-profile-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cdn-profile-reader" xr:uid="{69BAEA5D-1CC2-4166-85C5-61C3A7E70518}"/>
+    <hyperlink ref="A58" r:id="rId17" location="classic-network-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-network-contributor" xr:uid="{79A55183-4DBF-41FE-ACB9-0A1E51CDCD1A}"/>
+    <hyperlink ref="A77" r:id="rId18" location="dns-zone-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - dns-zone-contributor" xr:uid="{8148E1FC-607F-4176-A6CC-08B0126031CF}"/>
+    <hyperlink ref="A105" r:id="rId19" location="network-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - network-contributor" xr:uid="{D41D4BB9-1F7C-4DDC-A8F0-7B29A16E524F}"/>
+    <hyperlink ref="A107" r:id="rId20" location="private-dns-zone-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - private-dns-zone-contributor" xr:uid="{BAD398F0-27E2-4711-9A39-254BD40B3C5A}"/>
+    <hyperlink ref="A134" r:id="rId21" location="traffic-manager-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - traffic-manager-contributor" xr:uid="{A5CB6F49-BA10-480D-AF54-1E7419EAAC56}"/>
+    <hyperlink ref="A46" r:id="rId22" location="avere-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - avere-contributor" xr:uid="{3D7F1C1A-2EE2-45F4-B2DA-38CC38C1F806}"/>
+    <hyperlink ref="A3" r:id="rId23" location="avere-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - avere-operator" xr:uid="{82966983-BC8A-4B5F-BBE4-1D61359E1A55}"/>
+    <hyperlink ref="A51" r:id="rId24" location="backup-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - backup-contributor" xr:uid="{75FD037B-5D79-4FF3-B6DC-143EE7AF186D}"/>
+    <hyperlink ref="A52" r:id="rId25" location="backup-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - backup-operator" xr:uid="{D51D0C31-3163-4CA8-82D4-ECB82FA06B3E}"/>
+    <hyperlink ref="A150" r:id="rId26" location="backup-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - backup-reader" xr:uid="{0FF56584-16D7-458C-B53C-FEB327A47657}"/>
+    <hyperlink ref="A59" r:id="rId27" location="classic-storage-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-storage-account-contributor" xr:uid="{B6390373-9B52-494A-A81E-FE96FEAB9484}"/>
+    <hyperlink ref="A60" r:id="rId28" location="classic-storage-account-key-operator-service-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - classic-storage-account-key-operator-service-role" xr:uid="{4064B91C-F435-4CC0-8E76-EA2AFC0A36A3}"/>
+    <hyperlink ref="A67" r:id="rId29" location="data-box-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-box-contributor" xr:uid="{C718EAA4-E19F-46BB-922D-7244AFDE45B9}"/>
+    <hyperlink ref="A160" r:id="rId30" location="data-box-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-box-reader" xr:uid="{C9D70337-9589-4AC1-B1D0-EB87DC6EA671}"/>
+    <hyperlink ref="A222" r:id="rId31" location="data-lake-analytics-developer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-lake-analytics-developer" xr:uid="{EE1D9CE4-D6C1-4922-9682-F24843965548}"/>
+    <hyperlink ref="A185" r:id="rId32" location="reader-and-data-access" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - reader-and-data-access" xr:uid="{8FA8FC0A-3DFA-478A-BF89-595C853CFC04}"/>
+    <hyperlink ref="A125" r:id="rId33" location="storage-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-account-contributor" xr:uid="{563183CD-4D59-4AA8-AE58-CB30303C6AA8}"/>
+    <hyperlink ref="A126" r:id="rId34" location="storage-account-key-operator-service-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-account-key-operator-service-role" xr:uid="{20CC9F59-78EF-4A52-A3D3-37DAD29D50DC}"/>
+    <hyperlink ref="A127" r:id="rId35" location="storage-blob-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-data-contributor" xr:uid="{3C89571A-1880-44FB-865C-58A784A3ECDB}"/>
+    <hyperlink ref="D127" r:id="rId36" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{C93F935E-F407-4850-806B-C6154E32163D}"/>
+    <hyperlink ref="A33" r:id="rId37" location="storage-blob-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-data-owner" xr:uid="{6993376B-CD18-411D-A42B-A77E7D7A9BED}"/>
+    <hyperlink ref="D33" r:id="rId38" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{EF451103-229F-455A-9E19-4014971A5A38}"/>
+    <hyperlink ref="A193" r:id="rId39" location="storage-blob-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-data-reader" xr:uid="{604C82FF-62D6-4385-9CDC-F727CDE63EF8}"/>
+    <hyperlink ref="D193" r:id="rId40" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{FB2F798F-37EE-4AAD-924B-783D52572163}"/>
+    <hyperlink ref="A34" r:id="rId41" location="storage-blob-delegator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-blob-delegator" xr:uid="{D12106BF-78CA-47BA-AC65-E6F3881F70BF}"/>
+    <hyperlink ref="D34" r:id="rId42" display="https://docs.microsoft.com/en-us/rest/api/storageservices/create-user-delegation-sas" xr:uid="{0A570157-61A1-46E6-BBF8-E4C7165631FA}"/>
+    <hyperlink ref="A128" r:id="rId43" location="storage-file-data-smb-share-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-file-data-smb-share-contributor" xr:uid="{CDBF3C34-80CA-443F-9F00-D2D4CD185889}"/>
+    <hyperlink ref="A129" r:id="rId44" location="storage-file-data-smb-share-elevated-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-file-data-smb-share-elevated-contributor" xr:uid="{1155DE4B-5693-49B9-985B-F3AC04EF436B}"/>
+    <hyperlink ref="A194" r:id="rId45" location="storage-file-data-smb-share-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-file-data-smb-share-reader" xr:uid="{0F51CB4D-5B4B-4E1F-BB30-E8E0F92B6D4F}"/>
+    <hyperlink ref="A130" r:id="rId46" location="storage-queue-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-contributor" xr:uid="{AABDB041-D143-4A30-B1DD-F27892036933}"/>
+    <hyperlink ref="D130" r:id="rId47" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{8AC1ED34-CDED-43D4-8D02-44F6A00021F4}"/>
+    <hyperlink ref="A242" r:id="rId48" location="storage-queue-data-message-processor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-message-processor" xr:uid="{EC54817F-832C-4F97-B450-F5BC65F82C3A}"/>
+    <hyperlink ref="D242" r:id="rId49" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{E891EA14-6365-4EB6-81C5-B76BC390DA96}"/>
+    <hyperlink ref="A243" r:id="rId50" location="storage-queue-data-message-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-message-sender" xr:uid="{C5F793D3-14D7-4BE4-AD79-198E045C525C}"/>
+    <hyperlink ref="D243" r:id="rId51" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{BF125073-38F3-4E50-AF65-39C07BF07BDA}"/>
+    <hyperlink ref="A195" r:id="rId52" location="storage-queue-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-queue-data-reader" xr:uid="{EFDA5B89-5B93-4F05-9D93-0349538531B4}"/>
+    <hyperlink ref="D195" r:id="rId53" location="permissions-for-calling-blob-and-queue-data-operations" display="https://docs.microsoft.com/en-us/rest/api/storageservices/authenticate-with-azure-active-directory - permissions-for-calling-blob-and-queue-data-operations" xr:uid="{28B58BA1-DE0D-4487-A84B-B94AFDDE1C29}"/>
+    <hyperlink ref="A131" r:id="rId54" location="storage-table-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-table-data-contributor" xr:uid="{78418FAE-91F3-4512-9586-72DD96784212}"/>
+    <hyperlink ref="A196" r:id="rId55" location="storage-table-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - storage-table-data-reader" xr:uid="{140E6FC8-D57E-4044-B387-0CB7A058AA85}"/>
+    <hyperlink ref="A48" r:id="rId56" location="azure-maps-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-maps-data-contributor" xr:uid="{9BB88704-C4F7-4BDB-A740-5D0868BA1B1A}"/>
+    <hyperlink ref="A146" r:id="rId57" location="azure-maps-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-maps-data-reader" xr:uid="{C6D0EE7A-F92F-4CA2-AB1E-B5EB32227E1C}"/>
+    <hyperlink ref="A49" r:id="rId58" location="azure-spring-cloud-config-server-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-config-server-contributor" xr:uid="{1D6FE2FA-860A-48BA-AE70-851D41E65C3A}"/>
+    <hyperlink ref="A147" r:id="rId59" location="azure-spring-cloud-config-server-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-config-server-reader" xr:uid="{D7BC59F3-38BD-450A-8B99-021FCC2681DA}"/>
+    <hyperlink ref="A148" r:id="rId60" location="azure-spring-cloud-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-data-reader" xr:uid="{14855134-5DA8-4A36-82AE-F864001F4704}"/>
+    <hyperlink ref="A50" r:id="rId61" location="azure-spring-cloud-service-registry-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-service-registry-contributor" xr:uid="{73BBCFF5-BDC4-4A03-AF05-4D8419D3EA86}"/>
+    <hyperlink ref="A149" r:id="rId62" location="azure-spring-cloud-service-registry-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-spring-cloud-service-registry-reader" xr:uid="{AD2F01E1-AB38-42D8-AEE4-F7CEE2432994}"/>
+    <hyperlink ref="A23" r:id="rId63" location="media-services-account-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-account-administrator" xr:uid="{3B5E6D5F-161E-43B5-B486-1AAC16753F1E}"/>
+    <hyperlink ref="A24" r:id="rId64" location="media-services-live-events-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-live-events-administrator" xr:uid="{66D3F5CE-0777-44CC-B0F3-5F778B1CDE49}"/>
+    <hyperlink ref="A101" r:id="rId65" location="media-services-media-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-media-operator" xr:uid="{46FCF4C5-0C4B-49D6-A9A3-0240AC34729E}"/>
+    <hyperlink ref="A25" r:id="rId66" location="media-services-policy-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-policy-administrator" xr:uid="{173DE59D-17D9-4234-BE5F-D011D809E596}"/>
+    <hyperlink ref="A26" r:id="rId67" location="media-services-streaming-endpoints-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - media-services-streaming-endpoints-administrator" xr:uid="{B4EEDCB2-A170-45E7-82B0-ADD357B16520}"/>
+    <hyperlink ref="A114" r:id="rId68" location="search-index-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - search-index-data-contributor" xr:uid="{D8D4B6FC-531F-4395-BD7B-B935E44880CE}"/>
+    <hyperlink ref="A187" r:id="rId69" location="search-index-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - search-index-data-reader" xr:uid="{CE9BC55F-00D8-496E-855B-264CA48116F0}"/>
+    <hyperlink ref="A115" r:id="rId70" location="search-service-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - search-service-contributor" xr:uid="{A5F4C7CD-6A7E-4AEA-88A9-523DA870AF04}"/>
+    <hyperlink ref="A189" r:id="rId71" location="signalr-accesskey-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-accesskey-reader" xr:uid="{2ACE8839-E7A4-4EAB-BF31-DEA7FD321BA9}"/>
+    <hyperlink ref="A240" r:id="rId72" location="signalr-app-server" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-app-server" xr:uid="{1E858FA2-89DC-45E0-B10A-674CD4CEC785}"/>
+    <hyperlink ref="A30" r:id="rId73" location="signalr-rest-api-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-rest-api-owner" xr:uid="{111D4CA4-2AE1-4BBE-B920-0623A5B13B50}"/>
+    <hyperlink ref="A190" r:id="rId74" location="signalr-rest-api-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-rest-api-reader" xr:uid="{82331359-3E5D-4A48-B74D-15837EB6F5A1}"/>
+    <hyperlink ref="A31" r:id="rId75" location="signalr-service-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalr-service-owner" xr:uid="{4206CF20-6110-4384-BE12-3C402FBE5911}"/>
+    <hyperlink ref="A118" r:id="rId76" location="signalrweb-pubsub-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - signalrweb-pubsub-contributor" xr:uid="{9B010675-36FE-48E5-A339-54A01356521E}"/>
+    <hyperlink ref="A135" r:id="rId77" location="web-plan-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - web-plan-contributor" xr:uid="{4AFEB7F1-BE73-490E-AB83-2E0E13DCEB2A}"/>
+    <hyperlink ref="A136" r:id="rId78" location="website-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - website-contributor" xr:uid="{16A5F494-CCCD-4E8C-9812-768FFCDC39D5}"/>
+    <hyperlink ref="A199" r:id="rId79" location="acrdelete" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrdelete" xr:uid="{5ACC3526-8551-4CF5-940B-F4FB3A14FB90}"/>
+    <hyperlink ref="A200" r:id="rId80" location="acrimagesigner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrimagesigner" xr:uid="{5D62BBFD-8468-4EA4-9188-22F95942A97D}"/>
+    <hyperlink ref="A201" r:id="rId81" location="acrpull" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrpull" xr:uid="{8BA4C35A-B7E2-4763-8BA3-8B3650AB5FC7}"/>
+    <hyperlink ref="A202" r:id="rId82" location="acrpush" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrpush" xr:uid="{F3433ECC-F7F2-4913-99E6-204E01E134FD}"/>
+    <hyperlink ref="A138" r:id="rId83" location="acrquarantinereader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrquarantinereader" xr:uid="{A1A87812-3169-4437-9C19-4EA7C2528AA4}"/>
+    <hyperlink ref="A203" r:id="rId84" location="acrquarantinewriter" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - acrquarantinewriter" xr:uid="{6508161F-365E-4BB8-B62E-B50D55741F7F}"/>
+    <hyperlink ref="A9" r:id="rId85" location="azure-kubernetes-service-cluster-admin-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-cluster-admin-role" xr:uid="{18F4511F-DD7C-4AFC-81FF-6D111DA383CB}"/>
+    <hyperlink ref="A144" r:id="rId86" location="azure-kubernetes-service-cluster-user-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-cluster-user-role" xr:uid="{B0DA8ADD-1286-4A65-89D4-04C296941FE2}"/>
+    <hyperlink ref="A47" r:id="rId87" location="azure-kubernetes-service-contributor-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-contributor-role" xr:uid="{DF76FF87-0057-4247-8075-0F8F620F1C94}"/>
+    <hyperlink ref="A10" r:id="rId88" location="azure-kubernetes-service-rbac-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-admin" xr:uid="{B15163EB-51CE-481F-AEB2-83C995945F41}"/>
+    <hyperlink ref="A11" r:id="rId89" location="azure-kubernetes-service-rbac-cluster-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-cluster-admin" xr:uid="{1658ACA8-AB67-489E-AF2E-15E55F198758}"/>
+    <hyperlink ref="A145" r:id="rId90" location="azure-kubernetes-service-rbac-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-reader" xr:uid="{E0B2DB07-9712-4D4B-B908-714D6A457B20}"/>
+    <hyperlink ref="A211" r:id="rId91" location="azure-kubernetes-service-rbac-writer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-kubernetes-service-rbac-writer" xr:uid="{B8DDCF76-6DB0-408F-94DD-2854929503DA}"/>
+    <hyperlink ref="A208" r:id="rId92" location="azure-connected-sql-server-onboarding" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-connected-sql-server-onboarding" xr:uid="{9225A49F-428E-4D39-B908-63FD818939D9}"/>
+    <hyperlink ref="A158" r:id="rId93" location="cosmos-db-account-reader-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmos-db-account-reader-role" xr:uid="{B1F20550-2BDD-4D25-A10C-9D558EE94B67}"/>
+    <hyperlink ref="D158" r:id="rId94" location="documentdb-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - documentdb-account-contributor" xr:uid="{056DE4EE-4226-4070-AD2B-CB1CEF875875}"/>
+    <hyperlink ref="A63" r:id="rId95" location="cosmos-db-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmos-db-operator" xr:uid="{8D698BF4-764D-4AE0-AC7F-B4B5E6A3E98A}"/>
+    <hyperlink ref="A64" r:id="rId96" location="cosmosbackupoperator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmosbackupoperator" xr:uid="{C15E1492-9501-4E8E-A183-7C8E8FF3F310}"/>
+    <hyperlink ref="A65" r:id="rId97" location="cosmosrestoreoperator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cosmosrestoreoperator" xr:uid="{724ACAA7-49C8-4BD1-A957-4B37D6663E27}"/>
+    <hyperlink ref="A78" r:id="rId98" location="documentdb-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - documentdb-account-contributor" xr:uid="{CE7128FA-8CF2-434D-881E-5456B730F3C5}"/>
+    <hyperlink ref="A110" r:id="rId99" location="redis-cache-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - redis-cache-contributor" xr:uid="{06AE44A7-5D63-4974-86E4-5798F4C04C60}"/>
+    <hyperlink ref="A122" r:id="rId100" location="sql-db-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-db-contributor" xr:uid="{DCB5DBB9-B1D6-4C89-A243-E8730C7C93E9}"/>
+    <hyperlink ref="A123" r:id="rId101" location="sql-managed-instance-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-managed-instance-contributor" xr:uid="{98A00C80-83C5-4B05-A128-491DBC1867DC}"/>
+    <hyperlink ref="A241" r:id="rId102" location="sql-security-manager" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-security-manager" xr:uid="{70BAD8B0-4753-43B7-A8DD-F7134E1893B7}"/>
+    <hyperlink ref="A124" r:id="rId103" location="sql-server-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - sql-server-contributor" xr:uid="{1ED2F903-6129-4D88-8E12-9833BB646BAF}"/>
+    <hyperlink ref="A8" r:id="rId104" location="azure-event-hubs-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-event-hubs-data-owner" xr:uid="{491C4AC0-93FD-4999-91A2-3B59D912880D}"/>
+    <hyperlink ref="A209" r:id="rId105" location="azure-event-hubs-data-receiver" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-event-hubs-data-receiver" xr:uid="{726AE1F7-5E9F-49B3-A543-DB39B3497792}"/>
+    <hyperlink ref="A210" r:id="rId106" location="azure-event-hubs-data-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-event-hubs-data-sender" xr:uid="{A06DEC0A-24D0-4376-84ED-3064D8A70C7D}"/>
+    <hyperlink ref="A68" r:id="rId107" location="data-factory-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-factory-contributor" xr:uid="{60EAEE91-2E9E-4C15-927E-4A5F0DCEF15F}"/>
+    <hyperlink ref="A223" r:id="rId108" location="data-purger" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - data-purger" xr:uid="{71465915-4E86-41E0-B1DE-1D31146F0A03}"/>
+    <hyperlink ref="A83" r:id="rId109" location="hdinsight-cluster-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - hdinsight-cluster-operator" xr:uid="{5E6F5075-2DBE-42AA-8C53-F43A72C4C818}"/>
+    <hyperlink ref="A84" r:id="rId110" location="hdinsight-domain-services-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - hdinsight-domain-services-contributor" xr:uid="{4404C16E-547B-4077-88DB-B1597EE4932E}"/>
+    <hyperlink ref="A92" r:id="rId111" location="log-analytics-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - log-analytics-contributor" xr:uid="{67F0705E-274B-42E3-A045-A6E545D05B0C}"/>
+    <hyperlink ref="A180" r:id="rId112" location="log-analytics-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - log-analytics-reader" xr:uid="{702256A8-915E-46A1-9ED5-E22F9FEDEEF8}"/>
+    <hyperlink ref="A113" r:id="rId113" location="schema-registry-contributor-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - schema-registry-contributor-preview" xr:uid="{3814DDE5-A88F-433C-810C-73142B4A83E3}"/>
+    <hyperlink ref="A186" r:id="rId114" location="schema-registry-reader-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - schema-registry-reader-preview" xr:uid="{342325F1-30D4-4A9C-8DB1-F9B8BDF10A93}"/>
+    <hyperlink ref="A244" r:id="rId115" location="stream-analytics-query-tester" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - stream-analytics-query-tester" xr:uid="{D96DFE47-8EA8-49E2-8B73-D423D62B6A63}"/>
+    <hyperlink ref="A216" r:id="rId116" location="azureml-data-scientist" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azureml-data-scientist" xr:uid="{D7A5EFA0-663E-4CE3-8ED4-932BE00F60DB}"/>
+    <hyperlink ref="A61" r:id="rId117" location="cognitive-services-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-contributor" xr:uid="{9C709063-4767-4CEB-A8A5-DE0938D59F1A}"/>
+    <hyperlink ref="A62" r:id="rId118" location="cognitive-services-custom-vision-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-contributor" xr:uid="{7AF6FFC4-0233-4BAC-893F-DE970EBB2BBE}"/>
+    <hyperlink ref="A217" r:id="rId119" location="cognitive-services-custom-vision-deployment" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-deployment" xr:uid="{8D2EDD3B-E6E8-402A-A91F-9048BC22248B}"/>
+    <hyperlink ref="A218" r:id="rId120" location="cognitive-services-custom-vision-labeler" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-labeler" xr:uid="{F8338B03-0206-4EC5-92A2-8A2F1C7D4D14}"/>
+    <hyperlink ref="A154" r:id="rId121" location="cognitive-services-custom-vision-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-reader" xr:uid="{28B05824-14F8-413D-9CC7-76B6F93AFC29}"/>
+    <hyperlink ref="A219" r:id="rId122" location="cognitive-services-custom-vision-trainer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-custom-vision-trainer" xr:uid="{90EEE218-D3D1-42A7-9140-97BB6CC4DBA3}"/>
+    <hyperlink ref="A155" r:id="rId123" location="cognitive-services-data-reader-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-data-reader-preview" xr:uid="{92C33BBB-94A7-40DB-B53B-946C40EE8F56}"/>
+    <hyperlink ref="A220" r:id="rId124" location="cognitive-services-face-recognizer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-face-recognizer" xr:uid="{E987B131-9E89-4E74-A896-FF51FE293297}"/>
+    <hyperlink ref="A16" r:id="rId125" location="cognitive-services-metrics-advisor-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-metrics-advisor-administrator" xr:uid="{819AF92F-A04F-4AE0-A51D-79654ED13A88}"/>
+    <hyperlink ref="A221" r:id="rId126" location="cognitive-services-qna-maker-editor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-qna-maker-editor" xr:uid="{C9A8EAA3-092D-4D74-88E0-C64E97203B2F}"/>
+    <hyperlink ref="A156" r:id="rId127" location="cognitive-services-qna-maker-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-qna-maker-reader" xr:uid="{9AFA30EB-70E4-4FEE-AF97-B9752FF5B595}"/>
+    <hyperlink ref="A157" r:id="rId128" location="cognitive-services-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cognitive-services-user" xr:uid="{28B20D2B-2C5D-4645-AE0A-AA8C0A2832ED}"/>
+    <hyperlink ref="A18" r:id="rId129" location="device-update-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-administrator" xr:uid="{EBDA05DB-C13B-48D3-BF4A-BEE3281093CA}"/>
+    <hyperlink ref="A19" r:id="rId130" location="device-update-content-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-content-administrator" xr:uid="{16E9356A-CE0A-433A-BA6B-A60D2726B54D}"/>
+    <hyperlink ref="A167" r:id="rId131" location="device-update-content-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-content-reader" xr:uid="{96D4FFF1-E769-4382-862F-10E5CAFC16A5}"/>
+    <hyperlink ref="A20" r:id="rId132" location="device-update-deployments-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-deployments-administrator" xr:uid="{581D68DE-3FEE-4B0F-9E7A-4EB71D739406}"/>
+    <hyperlink ref="A168" r:id="rId133" location="device-update-deployments-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-deployments-reader" xr:uid="{488B2F3D-11EC-4715-BB39-EDF8404D9403}"/>
+    <hyperlink ref="A169" r:id="rId134" location="device-update-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - device-update-reader" xr:uid="{71F1E8B6-34CF-4594-A92A-BD225C4BF173}"/>
+    <hyperlink ref="A87" r:id="rId135" location="iot-hub-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-data-contributor" xr:uid="{8072E78D-FAFB-478B-A0BF-49806BABA139}"/>
+    <hyperlink ref="A175" r:id="rId136" location="iot-hub-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-data-reader" xr:uid="{564A5854-8C47-4FFD-AA22-CBCD07335DC0}"/>
+    <hyperlink ref="A88" r:id="rId137" location="iot-hub-registry-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-registry-contributor" xr:uid="{682A6FAD-BB8B-498B-8963-0CA4147ECEAB}"/>
+    <hyperlink ref="A89" r:id="rId138" location="iot-hub-twin-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - iot-hub-twin-contributor" xr:uid="{F0B91F65-6FC8-4F92-9580-FBAF22A1B951}"/>
+    <hyperlink ref="A28" r:id="rId139" location="remote-rendering-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - remote-rendering-administrator" xr:uid="{E6194840-C516-4190-B4F5-391477FCFE7E}"/>
+    <hyperlink ref="A237" r:id="rId140" location="remote-rendering-client" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - remote-rendering-client" xr:uid="{77798432-28B5-4A3C-B67B-D754E5217CD9}"/>
+    <hyperlink ref="A121" r:id="rId141" location="spatial-anchors-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - spatial-anchors-account-contributor" xr:uid="{31FAA493-5904-4D0C-90C9-73CE0E74CEDC}"/>
+    <hyperlink ref="A32" r:id="rId142" location="spatial-anchors-account-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - spatial-anchors-account-owner" xr:uid="{9E54BC67-4772-49A8-B9F6-35A2890A2FC9}"/>
+    <hyperlink ref="A192" r:id="rId143" location="spatial-anchors-account-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - spatial-anchors-account-reader" xr:uid="{DD9A600F-7189-4CAB-A1B6-7E68C8ED8CCA}"/>
+    <hyperlink ref="A38" r:id="rId144" location="api-management-service-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - api-management-service-contributor" xr:uid="{FD8D81F2-E7F0-4B4F-A4E9-16AF1C0EDF28}"/>
+    <hyperlink ref="A39" r:id="rId145" location="api-management-service-operator-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - api-management-service-operator-role" xr:uid="{8C10430F-5560-44A8-8640-8438696D9D72}"/>
+    <hyperlink ref="A139" r:id="rId146" location="api-management-service-reader-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - api-management-service-reader-role" xr:uid="{9DDBF4BA-D1A2-48C4-82F8-7DB60BCE3770}"/>
+    <hyperlink ref="A2" r:id="rId147" location="app-configuration-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - app-configuration-data-owner" xr:uid="{2458BBF5-19E1-447F-99FE-CB1E18E8F04F}"/>
+    <hyperlink ref="A140" r:id="rId148" location="app-configuration-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - app-configuration-data-reader" xr:uid="{E57093EF-8A92-45BB-AD20-D90FEDA3CF79}"/>
+    <hyperlink ref="A212" r:id="rId149" location="azure-relay-listener" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-relay-listener" xr:uid="{48042C3E-E459-4FA7-B76A-3191D682AC44}"/>
+    <hyperlink ref="A12" r:id="rId150" location="azure-relay-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-relay-owner" xr:uid="{EE55986F-CD92-49B7-BB2D-0ECD61245A76}"/>
+    <hyperlink ref="A213" r:id="rId151" location="azure-relay-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-relay-sender" xr:uid="{67846C23-E277-45DA-8446-AE79EF3EF7D5}"/>
+    <hyperlink ref="A13" r:id="rId152" location="azure-service-bus-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-service-bus-data-owner" xr:uid="{3379A5ED-F1BE-4CE5-85D8-CF63B0DA2F29}"/>
+    <hyperlink ref="A214" r:id="rId153" location="azure-service-bus-data-receiver" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-service-bus-data-receiver" xr:uid="{3ADC4D59-DC91-408A-8C25-3BA7300042A3}"/>
+    <hyperlink ref="A215" r:id="rId154" location="azure-service-bus-data-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-service-bus-data-sender" xr:uid="{820F6648-839C-4F58-BC3C-A485E4265741}"/>
+    <hyperlink ref="A14" r:id="rId155" location="azure-stack-registration-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-stack-registration-owner" xr:uid="{E19B474C-A788-411E-B3CD-9EC23B158722}"/>
+    <hyperlink ref="A80" r:id="rId156" location="eventgrid-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-contributor" xr:uid="{CD5715EA-6964-4290-968F-4F5629AFE707}"/>
+    <hyperlink ref="A224" r:id="rId157" location="eventgrid-data-sender" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-data-sender" xr:uid="{0E66B45D-5338-4C89-9B2C-27A3652AD900}"/>
+    <hyperlink ref="A81" r:id="rId158" location="eventgrid-eventsubscription-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-eventsubscription-contributor" xr:uid="{FC6B4026-1DE5-4918-9B70-0A00208472EF}"/>
+    <hyperlink ref="A173" r:id="rId159" location="eventgrid-eventsubscription-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - eventgrid-eventsubscription-reader" xr:uid="{BE22DC53-719D-4523-9EB9-11B1431A07B2}"/>
+    <hyperlink ref="A82" r:id="rId160" location="fhir-data-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-contributor" xr:uid="{87839C7B-8887-48EA-8874-83C3FD6CAAFC}"/>
+    <hyperlink ref="A225" r:id="rId161" location="fhir-data-exporter" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-exporter" xr:uid="{54D6C69F-A567-4A3C-83F5-6DF3A098EDE8}"/>
+    <hyperlink ref="A174" r:id="rId162" location="fhir-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-reader" xr:uid="{C458FE50-2773-4C0E-899D-BD5549AF77D6}"/>
+    <hyperlink ref="A226" r:id="rId163" location="fhir-data-writer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - fhir-data-writer" xr:uid="{128CA6CD-23B4-4289-8E10-452750A5CE0C}"/>
+    <hyperlink ref="A85" r:id="rId164" location="integration-service-environment-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - integration-service-environment-contributor" xr:uid="{F1C0896F-0933-4035-AD69-640BDE77C936}"/>
+    <hyperlink ref="A227" r:id="rId165" location="integration-service-environment-developer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - integration-service-environment-developer" xr:uid="{C826B806-D793-42E3-9A2B-43F106070C02}"/>
+    <hyperlink ref="A86" r:id="rId166" location="intelligent-systems-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - intelligent-systems-account-contributor" xr:uid="{6AB98511-9E83-4072-9713-6DF60E7FA918}"/>
+    <hyperlink ref="A93" r:id="rId167" location="logic-app-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - logic-app-contributor" xr:uid="{7DB120EC-E605-4571-B73C-044E9D27D30B}"/>
+    <hyperlink ref="A94" r:id="rId168" location="logic-app-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - logic-app-operator" xr:uid="{0E0DE873-CB9D-4DB8-BBBD-1E2AFE75A111}"/>
+    <hyperlink ref="A79" r:id="rId169" location="domain-services-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - domain-services-contributor" xr:uid="{397C746C-7142-4C63-9091-EC47E92659D0}"/>
+    <hyperlink ref="A172" r:id="rId170" location="domain-services-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - domain-services-reader" xr:uid="{CF2D5C29-935E-4F8C-AA2B-D538AD1A0FB0}"/>
+    <hyperlink ref="A98" r:id="rId171" location="managed-identity-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-identity-contributor" xr:uid="{0B82011E-9A19-4743-AA73-408E80D9C5C5}"/>
+    <hyperlink ref="A99" r:id="rId172" location="managed-identity-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-identity-operator" xr:uid="{58F82299-44CF-4A49-9212-EFB0A7BB2512}"/>
+    <hyperlink ref="A41" r:id="rId173" location="attestation-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - attestation-contributor" xr:uid="{FA4C4B9A-3F72-42F7-902B-B3C5F1F8462A}"/>
+    <hyperlink ref="A141" r:id="rId174" location="attestation-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - attestation-reader" xr:uid="{039C6003-3A4F-4347-A1AB-98AE539C7C6D}"/>
+    <hyperlink ref="A22" r:id="rId175" location="key-vault-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-administrator" xr:uid="{34FF6B2A-B402-4F76-9B4B-3493C573ABC8}"/>
+    <hyperlink ref="A228" r:id="rId176" location="key-vault-certificates-officer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-certificates-officer" xr:uid="{EFB01B00-9951-493C-82E1-7CD52CACB1D5}"/>
+    <hyperlink ref="A90" r:id="rId177" location="key-vault-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-contributor" xr:uid="{38CB4A67-464C-43AC-B1A8-397359791D46}"/>
+    <hyperlink ref="A229" r:id="rId178" location="key-vault-crypto-officer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-crypto-officer" xr:uid="{4B774E16-57BE-4919-9F38-28997C4DB20C}"/>
+    <hyperlink ref="A176" r:id="rId179" location="key-vault-crypto-service-encryption-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-crypto-service-encryption-user" xr:uid="{5965DFD4-C43B-45FB-8A88-544E7BE5C0A9}"/>
+    <hyperlink ref="A177" r:id="rId180" location="key-vault-crypto-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-crypto-user" xr:uid="{918DAA03-C0D3-4602-B3AC-761F7DCEE820}"/>
+    <hyperlink ref="A178" r:id="rId181" location="key-vault-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-reader" xr:uid="{87D97D68-D227-4CF0-A4B9-4E428CC56DE7}"/>
+    <hyperlink ref="A230" r:id="rId182" location="key-vault-secrets-officer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-secrets-officer" xr:uid="{34CA16AD-6400-46B4-8034-14868E882F87}"/>
+    <hyperlink ref="A179" r:id="rId183" location="key-vault-secrets-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - key-vault-secrets-user" xr:uid="{D27E0DA0-7A0F-451B-9E04-C96BBA0CB5A0}"/>
+    <hyperlink ref="A97" r:id="rId184" location="managed-hsm-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-hsm-contributor" xr:uid="{157B4C36-3A45-4D6C-9539-7A9224E1D317}"/>
+    <hyperlink ref="A102" r:id="rId185" location="microsoft-sentinel-automation-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-automation-contributor" xr:uid="{74699E4B-D970-487A-BB7B-AAFF9A1B54A9}"/>
+    <hyperlink ref="A103" r:id="rId186" location="microsoft-sentinel-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-contributor" xr:uid="{CFBF1694-328C-44BD-AF6C-575655DA48DF}"/>
+    <hyperlink ref="A183" r:id="rId187" location="microsoft-sentinel-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-reader" xr:uid="{5AED3333-9A9D-40D5-89F0-409EC27FB283}"/>
+    <hyperlink ref="A234" r:id="rId188" location="microsoft-sentinel-responder" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - microsoft-sentinel-responder" xr:uid="{27F4728D-AF28-47BB-BEC5-93380A6D9125}"/>
+    <hyperlink ref="A29" r:id="rId189" location="security-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-admin" xr:uid="{0E26477A-9046-41AA-81B4-D87D9146C7FA}"/>
+    <hyperlink ref="A116" r:id="rId190" location="security-assessment-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-assessment-contributor" xr:uid="{CDC70284-0586-4911-8D8B-7DE13966C6AC}"/>
+    <hyperlink ref="A239" r:id="rId191" location="security-manager-legacy" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-manager-legacy" xr:uid="{B30B4272-3CFB-49D9-BB05-31966C7D8174}"/>
+    <hyperlink ref="A188" r:id="rId192" location="security-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - security-reader" xr:uid="{3BAEC504-97CD-4851-8AC1-3EC58DC8851E}"/>
+    <hyperlink ref="A170" r:id="rId193" location="devtest-labs-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - devtest-labs-user" xr:uid="{C61330C5-55D0-48D9-8644-79FF57AF5F82}"/>
+    <hyperlink ref="A232" r:id="rId194" location="lab-creator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - lab-creator" xr:uid="{56DE3FB5-2479-4EDD-A967-7C4FB8302526}"/>
+    <hyperlink ref="A40" r:id="rId195" location="application-insights-component-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - application-insights-component-contributor" xr:uid="{81AEA8EF-7B79-4BAD-A316-E3DF42F39B95}"/>
+    <hyperlink ref="A204" r:id="rId196" location="application-insights-snapshot-debugger" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - application-insights-snapshot-debugger" xr:uid="{79F9D6BA-D4A8-4331-ADEE-824A1943D5B4}"/>
+    <hyperlink ref="A104" r:id="rId197" location="monitoring-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - monitoring-contributor" xr:uid="{53B9AF99-91D9-4F62-9232-E9D986B4667D}"/>
+    <hyperlink ref="D104" r:id="rId198" location="built-in-monitoring-roles" display="https://docs.microsoft.com/en-us/azure/azure-monitor/roles-permissions-security - built-in-monitoring-roles" xr:uid="{743CC296-551F-418D-AF60-5159FF1A7495}"/>
+    <hyperlink ref="A235" r:id="rId199" location="monitoring-metrics-publisher" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - monitoring-metrics-publisher" xr:uid="{4D3CA32B-4D53-4868-BB4D-332AC2505D80}"/>
+    <hyperlink ref="A184" r:id="rId200" location="monitoring-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - monitoring-reader" xr:uid="{E505A643-736A-4880-9A1A-F684615D5CCB}"/>
+    <hyperlink ref="D184" r:id="rId201" location="built-in-monitoring-roles" display="https://docs.microsoft.com/en-us/azure/azure-monitor/roles-permissions-security - built-in-monitoring-roles" xr:uid="{B709D954-691C-4136-843A-A987D8D84D1C}"/>
+    <hyperlink ref="A137" r:id="rId202" location="workbook-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - workbook-contributor" xr:uid="{2BC3A3A7-7F6D-4701-8A0C-6C1E51FF1D29}"/>
+    <hyperlink ref="A198" r:id="rId203" location="workbook-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - workbook-reader" xr:uid="{FDC9A4FA-C543-486A-A73B-1E024F461EC3}"/>
+    <hyperlink ref="A42" r:id="rId204" location="automation-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-contributor" xr:uid="{3B57CF3E-BBDB-42DF-8760-FF6B311DD50E}"/>
+    <hyperlink ref="A43" r:id="rId205" location="automation-job-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-job-operator" xr:uid="{7AD8B1C7-C08B-435C-852B-F83D8EE44C48}"/>
+    <hyperlink ref="A44" r:id="rId206" location="automation-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-operator" xr:uid="{332984AF-00F7-48C5-B190-CE46B3B23477}"/>
+    <hyperlink ref="A45" r:id="rId207" location="automation-runbook-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - automation-runbook-operator" xr:uid="{0E3501B3-F52B-4E48-8DF3-10E499CABC59}"/>
+    <hyperlink ref="A142" r:id="rId208" location="azure-arc-enabled-kubernetes-cluster-user-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-enabled-kubernetes-cluster-user-role" xr:uid="{71E6F65B-B03E-454B-9E24-1AEC35648841}"/>
+    <hyperlink ref="A4" r:id="rId209" location="azure-arc-kubernetes-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-admin" xr:uid="{DE652CFD-2CCA-411D-A9DA-10BB9E685402}"/>
+    <hyperlink ref="A5" r:id="rId210" location="azure-arc-kubernetes-cluster-admin" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-cluster-admin" xr:uid="{87615989-0192-445E-A3A0-BBF5522467E9}"/>
+    <hyperlink ref="A205" r:id="rId211" location="azure-arc-kubernetes-viewer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-viewer" xr:uid="{B0AAD822-DF0E-4416-9FFF-70197A5AC035}"/>
+    <hyperlink ref="A206" r:id="rId212" location="azure-arc-kubernetes-writer" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-arc-kubernetes-writer" xr:uid="{DA3B6507-C92E-43C1-B3A6-FEE50AF3D449}"/>
+    <hyperlink ref="A207" r:id="rId213" location="azure-connected-machine-onboarding" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-connected-machine-onboarding" xr:uid="{EE65740C-3B6F-41F3-A788-C04C74E29ECE}"/>
+    <hyperlink ref="A6" r:id="rId214" location="azure-connected-machine-resource-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-connected-machine-resource-administrator" xr:uid="{5531940D-D510-4D29-A024-1BC1FA0B997C}"/>
+    <hyperlink ref="A151" r:id="rId215" location="billing-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - billing-reader" xr:uid="{554C7C1F-90F9-44C6-8498-F92AF1804C99}"/>
+    <hyperlink ref="A54" r:id="rId216" location="blueprint-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - blueprint-contributor" xr:uid="{19AED8DE-F156-4B6F-B1C9-CE6238A37984}"/>
+    <hyperlink ref="A55" r:id="rId217" location="blueprint-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - blueprint-operator" xr:uid="{39C22E83-2B53-48DC-AC22-9F1D90D9D4D9}"/>
+    <hyperlink ref="A66" r:id="rId218" location="cost-management-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cost-management-contributor" xr:uid="{EE9D287A-6815-4345-B5D7-0814E13ED917}"/>
+    <hyperlink ref="A159" r:id="rId219" location="cost-management-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - cost-management-reader" xr:uid="{5D468BE2-E1FB-46F5-A725-3B4C75E1603B}"/>
+    <hyperlink ref="A21" r:id="rId220" location="hierarchy-settings-administrator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - hierarchy-settings-administrator" xr:uid="{16D7D69F-75B6-49A0-A8E2-CC94643E070C}"/>
+    <hyperlink ref="A231" r:id="rId221" location="kubernetes-cluster---azure-arc-onboarding" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - kubernetes-cluster---azure-arc-onboarding" xr:uid="{8FBAE085-B5F6-4BCE-ACBB-10447FF6252A}"/>
+    <hyperlink ref="A91" r:id="rId222" location="kubernetes-extension-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - kubernetes-extension-contributor" xr:uid="{3E178FCF-7881-4843-B3F5-416247745E85}"/>
+    <hyperlink ref="A95" r:id="rId223" location="managed-application-contributor-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-application-contributor-role" xr:uid="{DEB162B4-A12B-4835-924C-F5EAD8EF88A1}"/>
+    <hyperlink ref="A96" r:id="rId224" location="managed-application-operator-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-application-operator-role" xr:uid="{F5A851CA-6B75-461B-9477-82CBF6D33A44}"/>
+    <hyperlink ref="A181" r:id="rId225" location="managed-applications-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-applications-reader" xr:uid="{DACE58A7-6538-4694-A1C5-A52CF7A005E2}"/>
+    <hyperlink ref="A233" r:id="rId226" location="managed-services-registration-assignment-delete-role" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - managed-services-registration-assignment-delete-role" xr:uid="{3759E24A-9098-4C70-BCD3-94F0BD4236B8}"/>
+    <hyperlink ref="A100" r:id="rId227" location="management-group-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - management-group-contributor" xr:uid="{B089BB41-1695-4D21-9261-2FAF494BB156}"/>
+    <hyperlink ref="A182" r:id="rId228" location="management-group-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - management-group-reader" xr:uid="{85EAC97F-0A09-44C3-8F61-332BC1D80F7B}"/>
+    <hyperlink ref="A106" r:id="rId229" location="new-relic-apm-account-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - new-relic-apm-account-contributor" xr:uid="{C892C852-AA04-428F-83DD-4084EE64DEDB}"/>
+    <hyperlink ref="A236" r:id="rId230" location="policy-insights-data-writer-preview" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - policy-insights-data-writer-preview" xr:uid="{91EA6E03-465C-4295-94F7-7A0098D3550D}"/>
+    <hyperlink ref="A108" r:id="rId231" location="quota-request-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - quota-request-operator" xr:uid="{F489A1C4-2F90-412A-93CD-8054F1820144}"/>
+    <hyperlink ref="A238" r:id="rId232" location="reservation-purchaser" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - reservation-purchaser" xr:uid="{E3A9BD3B-714C-4570-BF02-E764CA355D9E}"/>
+    <hyperlink ref="A111" r:id="rId233" location="resource-policy-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - resource-policy-contributor" xr:uid="{07800F9D-3C82-45B9-9EC6-B194FEC289B5}"/>
+    <hyperlink ref="A119" r:id="rId234" location="site-recovery-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - site-recovery-contributor" xr:uid="{0D20EC58-1607-4009-8BDA-13A331CD99A6}"/>
+    <hyperlink ref="A120" r:id="rId235" location="site-recovery-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - site-recovery-operator" xr:uid="{72DAAB12-2D00-468E-8DA0-6FEDBCBF5550}"/>
+    <hyperlink ref="A191" r:id="rId236" location="site-recovery-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - site-recovery-reader" xr:uid="{2A77D629-C36A-4F4B-8984-490DBBDF7A81}"/>
+    <hyperlink ref="A132" r:id="rId237" location="support-request-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - support-request-contributor" xr:uid="{A300DECA-E898-4D0A-A1D9-E81484A97397}"/>
+    <hyperlink ref="A133" r:id="rId238" location="tag-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - tag-contributor" xr:uid="{3E3C9C53-6D2B-4D6A-A9EB-7A54E57040D5}"/>
+    <hyperlink ref="A69" r:id="rId239" location="desktop-virtualization-application-group-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-application-group-contributor" xr:uid="{5EA353C6-37EC-4AC0-A5BE-0FA997482F26}"/>
+    <hyperlink ref="A161" r:id="rId240" location="desktop-virtualization-application-group-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-application-group-reader" xr:uid="{5ABB041E-F40E-4784-BF97-E433BA7E9CC6}"/>
+    <hyperlink ref="A70" r:id="rId241" location="desktop-virtualization-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-contributor" xr:uid="{459EC3F4-151B-4F94-B2F3-2581286EBC46}"/>
+    <hyperlink ref="A71" r:id="rId242" location="desktop-virtualization-host-pool-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-host-pool-contributor" xr:uid="{BD6C6CC2-6DC0-4596-82C0-692494A9D7A3}"/>
+    <hyperlink ref="A162" r:id="rId243" location="desktop-virtualization-host-pool-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-host-pool-reader" xr:uid="{CD6DFD02-CD82-4668-87A9-93CA29D1D9B2}"/>
+    <hyperlink ref="A163" r:id="rId244" location="desktop-virtualization-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-reader" xr:uid="{AA00DC06-260C-41FD-BF97-D2471E5B2078}"/>
+    <hyperlink ref="A72" r:id="rId245" location="desktop-virtualization-session-host-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-session-host-operator" xr:uid="{7BC8B0DE-58D9-430F-B752-A6157A0D673E}"/>
+    <hyperlink ref="A164" r:id="rId246" location="desktop-virtualization-user" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-user" xr:uid="{D2CE7465-DB0B-4C54-AE0A-6F7AFE8536A1}"/>
+    <hyperlink ref="A165" r:id="rId247" location="desktop-virtualization-user-session-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-user-session-operator" xr:uid="{63B04FD5-E022-4F7E-AAB8-9814D498CAC8}"/>
+    <hyperlink ref="A73" r:id="rId248" location="desktop-virtualization-workspace-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-workspace-contributor" xr:uid="{D0226028-9EDD-4E3E-9287-0C3A69AE945D}"/>
+    <hyperlink ref="A166" r:id="rId249" location="desktop-virtualization-workspace-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - desktop-virtualization-workspace-reader" xr:uid="{3A4F639D-DCEC-4D8A-ABAC-C11B854B98F8}"/>
+    <hyperlink ref="A7" r:id="rId250" location="azure-digital-twins-data-owner" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-digital-twins-data-owner" xr:uid="{D47F6A9C-5B23-4C7C-B32D-F9474DED534C}"/>
+    <hyperlink ref="A143" r:id="rId251" location="azure-digital-twins-data-reader" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - azure-digital-twins-data-reader" xr:uid="{EB9126FB-5A13-4EEC-9402-30C556276A1D}"/>
+    <hyperlink ref="A53" r:id="rId252" location="biztalk-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - biztalk-contributor" xr:uid="{B3F7B096-761C-4ABA-9516-8C1F652E102D}"/>
+    <hyperlink ref="A112" r:id="rId253" location="scheduler-job-collections-contributor" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - scheduler-job-collections-contributor" xr:uid="{44753A56-65AD-4D00-882D-42A591A6CF7D}"/>
+    <hyperlink ref="A117" r:id="rId254" location="services-hub-operator" display="https://docs.microsoft.com/en-us/azure/role-based-access-control/built-in-roles - services-hub-operator" xr:uid="{6EF46091-AB9B-4C37-B926-53394DBECF65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9138,15 +9298,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="27" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="26" t="s">
         <v>461</v>
       </c>
       <c r="C4">
@@ -9154,7 +9314,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C5">
@@ -9162,7 +9322,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="26" t="s">
         <v>344</v>
       </c>
       <c r="C6">
@@ -9170,7 +9330,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="26" t="s">
         <v>164</v>
       </c>
       <c r="C7">
@@ -9178,7 +9338,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="26" t="s">
         <v>404</v>
       </c>
       <c r="C8">
@@ -9186,7 +9346,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="26" t="s">
         <v>210</v>
       </c>
       <c r="C9">
@@ -9194,7 +9354,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="26" t="s">
         <v>285</v>
       </c>
       <c r="C10">
@@ -9202,7 +9362,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="26" t="s">
         <v>260</v>
       </c>
       <c r="C11">
@@ -9210,7 +9370,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="26" t="s">
         <v>530</v>
       </c>
       <c r="C12">
@@ -9218,7 +9378,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="26" t="s">
         <v>237</v>
       </c>
       <c r="C13">
@@ -9226,7 +9386,7 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="26" t="s">
         <v>312</v>
       </c>
       <c r="C14">
@@ -9234,7 +9394,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C15">
@@ -9242,7 +9402,7 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="26" t="s">
         <v>74</v>
       </c>
       <c r="C16">
@@ -9250,7 +9410,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="26" t="s">
         <v>446</v>
       </c>
       <c r="C17">
@@ -9258,7 +9418,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="26" t="s">
         <v>333</v>
       </c>
       <c r="C18">
@@ -9266,7 +9426,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="26" t="s">
         <v>553</v>
       </c>
       <c r="C19">
@@ -9274,7 +9434,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="26" t="s">
         <v>395</v>
       </c>
       <c r="C20">
@@ -9282,7 +9442,7 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C21">
@@ -9290,7 +9450,7 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="26" t="s">
         <v>441</v>
       </c>
       <c r="C22">
@@ -9298,7 +9458,7 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="26" t="s">
         <v>565</v>
       </c>
       <c r="C23">
@@ -9311,6 +9471,56 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100019419FCF45B814EA0EA18145E6D787C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c86b96a73799d35e4eb11afcfb13842c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="230e9df3-be65-4c73-a93b-d1236ebd677e" xmlns:ns3="ad872289-d705-4e7c-a122-ea3177bf1a53" xmlns:ns4="8a3c5e22-8492-4b21-8928-44ed79656c10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="068bdb4fb675dbfff76cecd2eca3b6d3" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9582,66 +9792,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e">T3N2AKX7Y3DP-701378903-243</_dlc_DocId>
@@ -9658,7 +9809,24 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8D4A93-3ACD-45F4-9570-35A94FCAD792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22D80F75-03F3-430B-9AD2-9DC033750480}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9679,23 +9847,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8D4A93-3ACD-45F4-9570-35A94FCAD792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2998ACC3-BDE6-4F1B-A5F9-A562574A546F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A24D1C-3E5C-490F-8ABE-52612D4722E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8a3c5e22-8492-4b21-8928-44ed79656c10"/>
@@ -9714,6 +9866,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2998ACC3-BDE6-4F1B-A5F9-A562574A546F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
